--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1197086.230706953</v>
+        <v>1195260.325484983</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2360030.971755327</v>
+        <v>2360030.971755325</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -704,19 +704,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.628891347332162</v>
+      </c>
+      <c r="V2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="S2" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="T2" t="n">
-        <v>38.88501798484931</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -798,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -859,16 +859,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>44.13217237922859</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,10 +941,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>38.88501798484931</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>38.12502610536668</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>44.13217237922859</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="S7" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>105.8098343021215</v>
       </c>
       <c r="F8" t="n">
-        <v>71.25731348415121</v>
+        <v>105.8098343021215</v>
       </c>
       <c r="G8" t="n">
         <v>105.8098343021215</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>71.25731348415121</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,10 +1178,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>105.8098343021215</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>105.8098343021215</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,22 +1215,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>105.8098343021215</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>105.8098343021215</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>105.8098343021215</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>92.45071072705066</v>
       </c>
       <c r="H9" t="n">
         <v>105.8098343021215</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.054077875635602</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1288,20 +1288,20 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>105.8098343021215</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2.386200722257179</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.65569254814004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.1624470139756</v>
+        <v>364.1624470139755</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>336.1116469711779</v>
       </c>
       <c r="E11" t="n">
-        <v>363.3589754227568</v>
+        <v>363.3589754227567</v>
       </c>
       <c r="F11" t="n">
-        <v>388.3046510922064</v>
+        <v>214.3148108271525</v>
       </c>
       <c r="G11" t="n">
         <v>394.2120237532432</v>
       </c>
       <c r="H11" t="n">
-        <v>295.1024306065308</v>
+        <v>295.1024306065307</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>94.77844484060846</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>14.75171800959242</v>
+        <v>133.0396906632259</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>193.4961355001531</v>
       </c>
       <c r="U11" t="n">
-        <v>232.5727127293405</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>309.1808638206299</v>
+        <v>309.1808638206298</v>
       </c>
       <c r="W11" t="n">
-        <v>330.669574067908</v>
+        <v>330.6695740679079</v>
       </c>
       <c r="X11" t="n">
         <v>351.159706028964</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.6665440065486</v>
+        <v>367.6665440065485</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>148.6754264491228</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>148.289504885795</v>
+        <v>148.2895048857949</v>
       </c>
       <c r="H13" t="n">
-        <v>133.6083408847595</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>102.8944979594882</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.8601780695016</v>
       </c>
       <c r="T13" t="n">
-        <v>162.4777143508233</v>
+        <v>204.5456718980072</v>
       </c>
       <c r="U13" t="n">
-        <v>267.685993989359</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>233.566248674323</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>207.1382607395321</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>200.0132587025897</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.1624470139756</v>
+        <v>364.1624470139755</v>
       </c>
       <c r="C14" t="n">
-        <v>346.7014971215025</v>
+        <v>332.9018041267771</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>336.1116469711779</v>
       </c>
       <c r="E14" t="n">
-        <v>363.3589754227568</v>
+        <v>363.3589754227567</v>
       </c>
       <c r="F14" t="n">
-        <v>388.3046510922064</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>394.2120237532432</v>
       </c>
       <c r="H14" t="n">
-        <v>295.1024306065308</v>
+        <v>295.1024306065307</v>
       </c>
       <c r="I14" t="n">
-        <v>94.7784448406085</v>
+        <v>94.77844484060846</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>133.0396906632259</v>
       </c>
       <c r="T14" t="n">
-        <v>107.0133064233408</v>
+        <v>193.4961355001531</v>
       </c>
       <c r="U14" t="n">
         <v>232.5727127293405</v>
       </c>
       <c r="V14" t="n">
-        <v>309.1808638206299</v>
+        <v>309.1808638206298</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>330.6695740679079</v>
       </c>
       <c r="X14" t="n">
-        <v>351.159706028964</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.6665440065486</v>
+        <v>367.6665440065485</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.2605855324323</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>148.6754264491228</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.8625679970641</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>126.8496533734262</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>41.37476496040475</v>
+        <v>100.4866866343166</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>204.5456718980073</v>
+        <v>204.5456718980072</v>
       </c>
       <c r="U16" t="n">
-        <v>267.685993989359</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>233.566248674323</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>267.951603687086</v>
+        <v>267.9516036870859</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>200.0132587025897</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>313.1413720816969</v>
       </c>
       <c r="F17" t="n">
-        <v>338.0870477511465</v>
+        <v>338.0870477511466</v>
       </c>
       <c r="G17" t="n">
-        <v>343.9944204121833</v>
+        <v>343.9944204121834</v>
       </c>
       <c r="H17" t="n">
         <v>244.8848272654709</v>
       </c>
       <c r="I17" t="n">
-        <v>44.56084149954862</v>
+        <v>44.5608414995487</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.82208732216604</v>
+        <v>82.82208732216615</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2785321590932</v>
+        <v>143.2785321590933</v>
       </c>
       <c r="U17" t="n">
         <v>182.3551093882807</v>
       </c>
       <c r="V17" t="n">
-        <v>258.96326047957</v>
+        <v>258.9632604795701</v>
       </c>
       <c r="W17" t="n">
-        <v>280.4519707268481</v>
+        <v>280.4519707268482</v>
       </c>
       <c r="X17" t="n">
-        <v>300.9421026879041</v>
+        <v>300.9421026879042</v>
       </c>
       <c r="Y17" t="n">
         <v>317.4489406654887</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.0429821913724</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>98.45782310806293</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>79.82647502764745</v>
+        <v>44.96143321970601</v>
       </c>
       <c r="E19" t="n">
-        <v>77.64496465600426</v>
+        <v>77.64496465600435</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>76.63205003236642</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>98.07190154473518</v>
       </c>
       <c r="H19" t="n">
-        <v>83.39073754369956</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.69189515621188</v>
+        <v>57.69189515621197</v>
       </c>
       <c r="S19" t="n">
-        <v>135.5333907646316</v>
+        <v>135.5333907646317</v>
       </c>
       <c r="T19" t="n">
         <v>154.3280685569474</v>
@@ -2059,16 +2059,16 @@
         <v>217.4683906482992</v>
       </c>
       <c r="V19" t="n">
-        <v>30.29601225929009</v>
+        <v>183.3486453332632</v>
       </c>
       <c r="W19" t="n">
-        <v>217.7340003460261</v>
+        <v>217.7340003460262</v>
       </c>
       <c r="X19" t="n">
         <v>156.9206573984723</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.7956553615299</v>
+        <v>149.79565536153</v>
       </c>
     </row>
     <row r="20">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>313.9448436729157</v>
+        <v>313.9448436729158</v>
       </c>
       <c r="C20" t="n">
         <v>296.4838937804427</v>
       </c>
       <c r="D20" t="n">
-        <v>285.8940436301181</v>
+        <v>285.8940436301182</v>
       </c>
       <c r="E20" t="n">
-        <v>313.1413720816969</v>
+        <v>313.141372081697</v>
       </c>
       <c r="F20" t="n">
-        <v>338.0870477511466</v>
+        <v>338.0870477511467</v>
       </c>
       <c r="G20" t="n">
         <v>343.9944204121834</v>
@@ -2099,7 +2099,7 @@
         <v>244.884827265471</v>
       </c>
       <c r="I20" t="n">
-        <v>44.56084149954867</v>
+        <v>44.56084149954872</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.8220873221661</v>
+        <v>82.82208732216615</v>
       </c>
       <c r="T20" t="n">
         <v>143.2785321590933</v>
@@ -2144,7 +2144,7 @@
         <v>280.4519707268482</v>
       </c>
       <c r="X20" t="n">
-        <v>300.9421026879042</v>
+        <v>300.9421026879043</v>
       </c>
       <c r="Y20" t="n">
         <v>317.4489406654887</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>111.0429821913725</v>
       </c>
       <c r="C22" t="n">
-        <v>98.45782310806298</v>
+        <v>98.45782310806302</v>
       </c>
       <c r="D22" t="n">
-        <v>62.7848941826208</v>
+        <v>79.82647502764755</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>77.64496465600436</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>76.63205003236644</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>98.0719015447352</v>
       </c>
       <c r="H22" t="n">
-        <v>83.39073754369961</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>52.67689461842835</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.69189515621194</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>135.5333907646317</v>
       </c>
       <c r="T22" t="n">
-        <v>154.3280685569474</v>
+        <v>154.3280685569475</v>
       </c>
       <c r="U22" t="n">
         <v>217.4683906482992</v>
@@ -2299,7 +2299,7 @@
         <v>183.3486453332632</v>
       </c>
       <c r="W22" t="n">
-        <v>217.7340003460262</v>
+        <v>31.06004839486141</v>
       </c>
       <c r="X22" t="n">
         <v>156.9206573984723</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>313.9448436729156</v>
+        <v>313.9448436729157</v>
       </c>
       <c r="C23" t="n">
-        <v>296.4838937804426</v>
+        <v>296.4838937804427</v>
       </c>
       <c r="D23" t="n">
-        <v>285.894043630118</v>
+        <v>285.8940436301181</v>
       </c>
       <c r="E23" t="n">
-        <v>313.1413720816968</v>
+        <v>313.1413720816969</v>
       </c>
       <c r="F23" t="n">
         <v>338.0870477511465</v>
@@ -2333,10 +2333,10 @@
         <v>343.9944204121833</v>
       </c>
       <c r="H23" t="n">
-        <v>244.8848272654708</v>
+        <v>244.8848272654709</v>
       </c>
       <c r="I23" t="n">
-        <v>44.56084149954859</v>
+        <v>44.56084149954862</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.82208732216601</v>
+        <v>82.82208732216604</v>
       </c>
       <c r="T23" t="n">
         <v>143.2785321590932</v>
       </c>
       <c r="U23" t="n">
-        <v>182.3551093882806</v>
+        <v>182.3551093882807</v>
       </c>
       <c r="V23" t="n">
         <v>258.96326047957</v>
@@ -2384,7 +2384,7 @@
         <v>300.9421026879041</v>
       </c>
       <c r="Y23" t="n">
-        <v>317.4489406654886</v>
+        <v>317.4489406654887</v>
       </c>
     </row>
     <row r="24">
@@ -2476,22 +2476,22 @@
         <v>111.0429821913724</v>
       </c>
       <c r="C25" t="n">
-        <v>98.4578231080629</v>
+        <v>98.45782310806293</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>79.82647502764745</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>77.64496465600426</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>54.43491744376823</v>
       </c>
       <c r="G25" t="n">
-        <v>87.80954415337808</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.39073754369956</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.69189515621186</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>135.5333907646316</v>
@@ -2539,10 +2539,10 @@
         <v>217.7340003460261</v>
       </c>
       <c r="X25" t="n">
-        <v>156.9206573984722</v>
+        <v>156.9206573984723</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.7956553615298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>313.9448436729156</v>
+        <v>313.9448436729157</v>
       </c>
       <c r="C26" t="n">
-        <v>296.4838937804426</v>
+        <v>296.4838937804427</v>
       </c>
       <c r="D26" t="n">
-        <v>285.894043630118</v>
+        <v>285.8940436301181</v>
       </c>
       <c r="E26" t="n">
-        <v>313.1413720816968</v>
+        <v>313.1413720816969</v>
       </c>
       <c r="F26" t="n">
         <v>338.0870477511465</v>
@@ -2570,10 +2570,10 @@
         <v>343.9944204121833</v>
       </c>
       <c r="H26" t="n">
-        <v>244.8848272654708</v>
+        <v>244.8848272654709</v>
       </c>
       <c r="I26" t="n">
-        <v>44.56084149954859</v>
+        <v>44.56084149954862</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.82208732216601</v>
+        <v>82.82208732216604</v>
       </c>
       <c r="T26" t="n">
         <v>143.2785321590932</v>
       </c>
       <c r="U26" t="n">
-        <v>182.3551093882806</v>
+        <v>182.3551093882807</v>
       </c>
       <c r="V26" t="n">
         <v>258.96326047957</v>
@@ -2621,7 +2621,7 @@
         <v>300.9421026879041</v>
       </c>
       <c r="Y26" t="n">
-        <v>317.4489406654886</v>
+        <v>317.4489406654887</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>111.0429821913724</v>
       </c>
       <c r="C28" t="n">
-        <v>89.82080304380663</v>
+        <v>98.45782310806293</v>
       </c>
       <c r="D28" t="n">
-        <v>79.82647502764742</v>
+        <v>79.82647502764745</v>
       </c>
       <c r="E28" t="n">
-        <v>77.64496465600423</v>
+        <v>77.64496465600426</v>
       </c>
       <c r="F28" t="n">
-        <v>76.63205003236631</v>
+        <v>76.63205003236634</v>
       </c>
       <c r="G28" t="n">
-        <v>98.07190154473507</v>
+        <v>98.0719015447351</v>
       </c>
       <c r="H28" t="n">
-        <v>83.39073754369953</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>52.67689461842826</v>
+        <v>52.67689461842829</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.69189515621186</v>
+        <v>57.69189515621188</v>
       </c>
       <c r="S28" t="n">
         <v>135.5333907646316</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.20598422961608</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>217.4683906482991</v>
       </c>
       <c r="V28" t="n">
         <v>183.3486453332631</v>
@@ -2776,10 +2776,10 @@
         <v>217.7340003460261</v>
       </c>
       <c r="X28" t="n">
-        <v>156.9206573984722</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.7956553615298</v>
+        <v>149.7956553615299</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.9448436729156</v>
+        <v>313.9448436729157</v>
       </c>
       <c r="C29" t="n">
-        <v>296.4838937804426</v>
+        <v>296.4838937804427</v>
       </c>
       <c r="D29" t="n">
-        <v>285.894043630118</v>
+        <v>285.8940436301181</v>
       </c>
       <c r="E29" t="n">
-        <v>313.1413720816968</v>
+        <v>313.1413720816969</v>
       </c>
       <c r="F29" t="n">
         <v>338.0870477511465</v>
@@ -2807,10 +2807,10 @@
         <v>343.9944204121833</v>
       </c>
       <c r="H29" t="n">
-        <v>244.8848272654708</v>
+        <v>244.8848272654709</v>
       </c>
       <c r="I29" t="n">
-        <v>44.56084149954859</v>
+        <v>44.56084149954863</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.82208732216601</v>
+        <v>82.82208732216604</v>
       </c>
       <c r="T29" t="n">
         <v>143.2785321590932</v>
       </c>
       <c r="U29" t="n">
-        <v>182.3551093882806</v>
+        <v>182.3551093882807</v>
       </c>
       <c r="V29" t="n">
         <v>258.96326047957</v>
@@ -2858,7 +2858,7 @@
         <v>300.9421026879041</v>
       </c>
       <c r="Y29" t="n">
-        <v>317.4489406654886</v>
+        <v>317.4489406654887</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.0429821913724</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>98.4578231080629</v>
+        <v>98.45782310806293</v>
       </c>
       <c r="D31" t="n">
-        <v>79.82647502764742</v>
+        <v>79.82647502764745</v>
       </c>
       <c r="E31" t="n">
-        <v>77.64496465600423</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>76.63205003236631</v>
+        <v>76.63205003236634</v>
       </c>
       <c r="G31" t="n">
-        <v>98.07190154473507</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.39073754369953</v>
+        <v>83.39073754369956</v>
       </c>
       <c r="I31" t="n">
-        <v>52.67689461842826</v>
+        <v>52.67689461842829</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.40271658150309</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>135.5333907646316</v>
+        <v>99.55165504345234</v>
       </c>
       <c r="T31" t="n">
         <v>154.3280685569474</v>
       </c>
       <c r="U31" t="n">
-        <v>217.4683906482991</v>
+        <v>217.4683906482992</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>183.3486453332631</v>
       </c>
       <c r="W31" t="n">
         <v>217.7340003460261</v>
       </c>
       <c r="X31" t="n">
-        <v>156.9206573984722</v>
+        <v>156.9206573984723</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>149.7956553615299</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>228.9275825727801</v>
       </c>
       <c r="I32" t="n">
-        <v>28.60359680685779</v>
+        <v>28.60359680685778</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.86484262947522</v>
+        <v>66.86484262947521</v>
       </c>
       <c r="T32" t="n">
         <v>127.3212874664024</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.08573749868157</v>
+        <v>95.08573749868155</v>
       </c>
       <c r="C34" t="n">
-        <v>82.5005784153721</v>
+        <v>82.50057841537209</v>
       </c>
       <c r="D34" t="n">
-        <v>63.86923033495663</v>
+        <v>63.86923033495661</v>
       </c>
       <c r="E34" t="n">
-        <v>61.68771996331344</v>
+        <v>61.68771996331343</v>
       </c>
       <c r="F34" t="n">
-        <v>60.67480533967552</v>
+        <v>60.6748053396755</v>
       </c>
       <c r="G34" t="n">
-        <v>82.11465685204428</v>
+        <v>82.11465685204426</v>
       </c>
       <c r="H34" t="n">
-        <v>67.43349285100874</v>
+        <v>67.43349285100872</v>
       </c>
       <c r="I34" t="n">
-        <v>36.71964992573747</v>
+        <v>36.71964992573746</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.73465046352106</v>
+        <v>41.73465046352105</v>
       </c>
       <c r="S34" t="n">
         <v>119.5761460719408</v>
       </c>
       <c r="T34" t="n">
-        <v>138.3708238642566</v>
+        <v>138.3708238642565</v>
       </c>
       <c r="U34" t="n">
         <v>201.5111459556083</v>
@@ -3284,7 +3284,7 @@
         <v>228.9275825727801</v>
       </c>
       <c r="I35" t="n">
-        <v>28.60359680685778</v>
+        <v>28.60359680685779</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.86484262947521</v>
+        <v>66.86484262947522</v>
       </c>
       <c r="T35" t="n">
         <v>127.3212874664024</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.08573749868155</v>
+        <v>95.08573749868157</v>
       </c>
       <c r="C37" t="n">
-        <v>82.50057841537209</v>
+        <v>82.5005784153721</v>
       </c>
       <c r="D37" t="n">
-        <v>63.86923033495661</v>
+        <v>63.86923033495663</v>
       </c>
       <c r="E37" t="n">
-        <v>61.68771996331343</v>
+        <v>61.68771996331344</v>
       </c>
       <c r="F37" t="n">
-        <v>60.6748053396755</v>
+        <v>60.67480533967552</v>
       </c>
       <c r="G37" t="n">
-        <v>82.11465685204426</v>
+        <v>82.11465685204428</v>
       </c>
       <c r="H37" t="n">
-        <v>67.43349285100872</v>
+        <v>67.43349285100874</v>
       </c>
       <c r="I37" t="n">
-        <v>36.71964992573746</v>
+        <v>36.71964992573747</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.73465046352105</v>
+        <v>41.73465046352106</v>
       </c>
       <c r="S37" t="n">
         <v>119.5761460719408</v>
       </c>
       <c r="T37" t="n">
-        <v>138.3708238642565</v>
+        <v>138.3708238642566</v>
       </c>
       <c r="U37" t="n">
         <v>201.5111459556083</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>297.9875989802249</v>
+        <v>297.9875989802248</v>
       </c>
       <c r="C38" t="n">
-        <v>280.5266490877519</v>
+        <v>280.5266490877518</v>
       </c>
       <c r="D38" t="n">
-        <v>269.9367989374273</v>
+        <v>269.9367989374272</v>
       </c>
       <c r="E38" t="n">
-        <v>297.1841273890061</v>
+        <v>297.184127389006</v>
       </c>
       <c r="F38" t="n">
-        <v>322.1298030584558</v>
+        <v>322.1298030584556</v>
       </c>
       <c r="G38" t="n">
-        <v>328.0371757194926</v>
+        <v>328.0371757194924</v>
       </c>
       <c r="H38" t="n">
-        <v>228.9275825727801</v>
+        <v>228.92758257278</v>
       </c>
       <c r="I38" t="n">
-        <v>28.60359680685785</v>
+        <v>28.60359680685777</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.86484262947528</v>
+        <v>66.86484262947519</v>
       </c>
       <c r="T38" t="n">
-        <v>127.3212874664025</v>
+        <v>127.3212874664024</v>
       </c>
       <c r="U38" t="n">
-        <v>166.3978646955899</v>
+        <v>166.3978646955898</v>
       </c>
       <c r="V38" t="n">
-        <v>243.0060157868792</v>
+        <v>243.0060157868791</v>
       </c>
       <c r="W38" t="n">
-        <v>264.4947260341573</v>
+        <v>264.4947260341572</v>
       </c>
       <c r="X38" t="n">
-        <v>284.9848579952134</v>
+        <v>284.9848579952132</v>
       </c>
       <c r="Y38" t="n">
         <v>301.4916959727979</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.08573749868162</v>
+        <v>95.08573749868154</v>
       </c>
       <c r="C40" t="n">
-        <v>82.50057841537216</v>
+        <v>82.50057841537208</v>
       </c>
       <c r="D40" t="n">
-        <v>63.86923033495668</v>
+        <v>63.8692303349566</v>
       </c>
       <c r="E40" t="n">
-        <v>61.6877199633135</v>
+        <v>61.68771996331341</v>
       </c>
       <c r="F40" t="n">
-        <v>60.67480533967557</v>
+        <v>60.67480533967549</v>
       </c>
       <c r="G40" t="n">
-        <v>82.11465685204433</v>
+        <v>82.11465685204425</v>
       </c>
       <c r="H40" t="n">
-        <v>67.43349285100879</v>
+        <v>67.43349285100871</v>
       </c>
       <c r="I40" t="n">
-        <v>36.71964992573753</v>
+        <v>36.71964992573744</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.73465046352112</v>
+        <v>41.73465046352104</v>
       </c>
       <c r="S40" t="n">
-        <v>119.5761460719409</v>
+        <v>119.5761460719408</v>
       </c>
       <c r="T40" t="n">
-        <v>138.3708238642566</v>
+        <v>138.3708238642565</v>
       </c>
       <c r="U40" t="n">
-        <v>201.5111459556084</v>
+        <v>201.5111459556083</v>
       </c>
       <c r="V40" t="n">
-        <v>167.3914006405723</v>
+        <v>167.3914006405722</v>
       </c>
       <c r="W40" t="n">
-        <v>201.7767556533353</v>
+        <v>201.7767556533352</v>
       </c>
       <c r="X40" t="n">
-        <v>140.9634127057815</v>
+        <v>140.9634127057814</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.8384106688391</v>
+        <v>133.838410668839</v>
       </c>
     </row>
     <row r="41">
@@ -3743,22 +3743,22 @@
         <v>280.5266490877518</v>
       </c>
       <c r="D41" t="n">
-        <v>269.936798937427</v>
+        <v>269.9367989374272</v>
       </c>
       <c r="E41" t="n">
-        <v>297.1841273890061</v>
+        <v>297.184127389006</v>
       </c>
       <c r="F41" t="n">
-        <v>322.1298030584557</v>
+        <v>322.1298030584556</v>
       </c>
       <c r="G41" t="n">
-        <v>328.0371757194925</v>
+        <v>328.0371757194924</v>
       </c>
       <c r="H41" t="n">
         <v>228.92758257278</v>
       </c>
       <c r="I41" t="n">
-        <v>28.60359680685781</v>
+        <v>28.60359680685777</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.86484262947525</v>
+        <v>66.86484262947521</v>
       </c>
       <c r="T41" t="n">
         <v>127.3212874664024</v>
@@ -3797,13 +3797,13 @@
         <v>166.3978646955898</v>
       </c>
       <c r="V41" t="n">
-        <v>243.0060157868792</v>
+        <v>243.0060157868791</v>
       </c>
       <c r="W41" t="n">
-        <v>264.4947260341573</v>
+        <v>264.4947260341572</v>
       </c>
       <c r="X41" t="n">
-        <v>284.9848579952133</v>
+        <v>284.9848579952132</v>
       </c>
       <c r="Y41" t="n">
         <v>301.4916959727979</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.08573749868158</v>
+        <v>95.08573749868154</v>
       </c>
       <c r="C43" t="n">
-        <v>82.50057841537212</v>
+        <v>82.50057841537208</v>
       </c>
       <c r="D43" t="n">
-        <v>63.86923033495664</v>
+        <v>63.8692303349566</v>
       </c>
       <c r="E43" t="n">
-        <v>61.68771996331346</v>
+        <v>61.68771996331341</v>
       </c>
       <c r="F43" t="n">
-        <v>60.67480533967553</v>
+        <v>60.67480533967549</v>
       </c>
       <c r="G43" t="n">
-        <v>82.11465685204429</v>
+        <v>82.11465685204425</v>
       </c>
       <c r="H43" t="n">
-        <v>67.43349285100875</v>
+        <v>67.43349285100871</v>
       </c>
       <c r="I43" t="n">
-        <v>36.71964992573749</v>
+        <v>36.71964992573744</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.73465046352108</v>
+        <v>41.73465046352104</v>
       </c>
       <c r="S43" t="n">
         <v>119.5761460719408</v>
       </c>
       <c r="T43" t="n">
-        <v>138.3708238642566</v>
+        <v>138.3708238642565</v>
       </c>
       <c r="U43" t="n">
         <v>201.5111459556083</v>
       </c>
       <c r="V43" t="n">
-        <v>167.3914006405723</v>
+        <v>167.3914006405722</v>
       </c>
       <c r="W43" t="n">
-        <v>201.7767556533353</v>
+        <v>201.7767556533352</v>
       </c>
       <c r="X43" t="n">
         <v>140.9634127057814</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.8384106688391</v>
+        <v>133.838410668839</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3983,19 @@
         <v>269.9367989374272</v>
       </c>
       <c r="E44" t="n">
-        <v>297.1841273890061</v>
+        <v>297.184127389006</v>
       </c>
       <c r="F44" t="n">
-        <v>322.1298030584557</v>
+        <v>322.1298030584556</v>
       </c>
       <c r="G44" t="n">
-        <v>328.0371757194925</v>
+        <v>328.0371757194924</v>
       </c>
       <c r="H44" t="n">
-        <v>228.9275825727801</v>
+        <v>228.92758257278</v>
       </c>
       <c r="I44" t="n">
-        <v>28.60359680685779</v>
+        <v>28.60359680685777</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.86484262947522</v>
+        <v>66.86484262947521</v>
       </c>
       <c r="T44" t="n">
         <v>127.3212874664024</v>
@@ -4034,13 +4034,13 @@
         <v>166.3978646955898</v>
       </c>
       <c r="V44" t="n">
-        <v>243.0060157868792</v>
+        <v>243.0060157868791</v>
       </c>
       <c r="W44" t="n">
-        <v>264.4947260341573</v>
+        <v>264.4947260341572</v>
       </c>
       <c r="X44" t="n">
-        <v>284.9848579952133</v>
+        <v>284.9848579952132</v>
       </c>
       <c r="Y44" t="n">
         <v>301.4916959727979</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.08573749868157</v>
+        <v>95.08573749868154</v>
       </c>
       <c r="C46" t="n">
-        <v>82.5005784153721</v>
+        <v>82.50057841537208</v>
       </c>
       <c r="D46" t="n">
-        <v>63.86923033495663</v>
+        <v>63.8692303349566</v>
       </c>
       <c r="E46" t="n">
-        <v>61.68771996331344</v>
+        <v>61.68771996331341</v>
       </c>
       <c r="F46" t="n">
-        <v>60.67480533967552</v>
+        <v>60.67480533967589</v>
       </c>
       <c r="G46" t="n">
-        <v>82.11465685204428</v>
+        <v>82.11465685204425</v>
       </c>
       <c r="H46" t="n">
-        <v>67.43349285100874</v>
+        <v>67.43349285100871</v>
       </c>
       <c r="I46" t="n">
-        <v>36.71964992573747</v>
+        <v>36.71964992573744</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.73465046352106</v>
+        <v>41.73465046352104</v>
       </c>
       <c r="S46" t="n">
         <v>119.5761460719408</v>
       </c>
       <c r="T46" t="n">
-        <v>138.3708238642566</v>
+        <v>138.3708238642565</v>
       </c>
       <c r="U46" t="n">
         <v>201.5111459556083</v>
       </c>
       <c r="V46" t="n">
-        <v>167.3914006405723</v>
+        <v>167.3914006405722</v>
       </c>
       <c r="W46" t="n">
-        <v>201.7767556533353</v>
+        <v>201.7767556533352</v>
       </c>
       <c r="X46" t="n">
         <v>140.9634127057814</v>
       </c>
       <c r="Y46" t="n">
-        <v>133.8384106688391</v>
+        <v>133.838410668839</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.00337440797365</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="C2" t="n">
-        <v>38.00337440797365</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="D2" t="n">
-        <v>38.00337440797365</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="E2" t="n">
-        <v>38.00337440797365</v>
+        <v>75.63582555698088</v>
       </c>
       <c r="F2" t="n">
         <v>31.05787365877018</v>
@@ -4331,19 +4331,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>45.45613755060546</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>45.45613755060546</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
@@ -4352,28 +4352,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S2" t="n">
-        <v>77.28117035226589</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T2" t="n">
-        <v>38.00337440797365</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U2" t="n">
-        <v>38.00337440797365</v>
+        <v>164.7917293534023</v>
       </c>
       <c r="V2" t="n">
-        <v>38.00337440797365</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="W2" t="n">
-        <v>38.00337440797365</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="X2" t="n">
-        <v>38.00337440797365</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.00337440797365</v>
+        <v>120.2137774551916</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H3" t="n">
-        <v>4.284706443124001</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4413,19 +4413,19 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
         <v>176.5286895169144</v>
@@ -4446,13 +4446,13 @@
         <v>87.37278572049297</v>
       </c>
       <c r="W3" t="n">
-        <v>48.8626583413347</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D4" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E4" t="n">
-        <v>90.73598234693722</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F4" t="n">
-        <v>70.60296187630945</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G4" t="n">
-        <v>70.60296187630945</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H4" t="n">
-        <v>70.60296187630945</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J4" t="n">
         <v>26.02500997809875</v>
@@ -4507,31 +4507,31 @@
         <v>135.3139342451479</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.3139342451479</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R4" t="n">
-        <v>135.3139342451479</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S4" t="n">
-        <v>135.3139342451479</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="U4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="V4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="W4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="X4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.3139342451479</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="C5" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="D5" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="F5" t="n">
-        <v>121.8591222504766</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G5" t="n">
-        <v>77.28117035226589</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
         <v>15.60056303742164</v>
@@ -4574,10 +4574,10 @@
         <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
+        <v>90.91227510121089</v>
+      </c>
+      <c r="N5" t="n">
         <v>134.6031257566472</v>
-      </c>
-      <c r="N5" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
         <v>176.5286895169144</v>
@@ -4589,28 +4589,28 @@
         <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4370741486873</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4370741486873</v>
+        <v>38.00337440797365</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F6" t="n">
-        <v>138.0185621377561</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H6" t="n">
         <v>48.8626583413347</v>
@@ -4647,19 +4647,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>134.6031257566472</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
         <v>176.5286895169144</v>
@@ -4677,19 +4677,19 @@
         <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.1809137745201</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="C7" t="n">
-        <v>115.1809137745201</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="D7" t="n">
-        <v>115.1809137745201</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="E7" t="n">
-        <v>115.1809137745201</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="F7" t="n">
-        <v>70.60296187630945</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="G7" t="n">
-        <v>26.02500997809875</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="H7" t="n">
-        <v>26.02500997809875</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="I7" t="n">
-        <v>26.02500997809875</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>69.3105240343566</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>108.4985622265788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>152.1894128820151</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="Q7" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="R7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.6467390108255</v>
       </c>
       <c r="S7" t="n">
-        <v>115.1809137745201</v>
+        <v>153.6467390108255</v>
       </c>
       <c r="T7" t="n">
-        <v>115.1809137745201</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="U7" t="n">
-        <v>115.1809137745201</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1809137745201</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="W7" t="n">
-        <v>115.1809137745201</v>
+        <v>109.0687871126148</v>
       </c>
       <c r="X7" t="n">
-        <v>115.1809137745201</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="Y7" t="n">
-        <v>115.1809137745201</v>
+        <v>64.49083521440409</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>413.1477218402588</v>
+      </c>
+      <c r="C8" t="n">
+        <v>413.1477218402588</v>
+      </c>
+      <c r="D8" t="n">
+        <v>413.1477218402588</v>
+      </c>
+      <c r="E8" t="n">
+        <v>306.2691013330654</v>
+      </c>
+      <c r="F8" t="n">
         <v>199.3904808258719</v>
       </c>
-      <c r="C8" t="n">
-        <v>199.3904808258719</v>
-      </c>
-      <c r="D8" t="n">
-        <v>199.3904808258719</v>
-      </c>
-      <c r="E8" t="n">
-        <v>199.3904808258719</v>
-      </c>
-      <c r="F8" t="n">
-        <v>127.4133964984465</v>
-      </c>
       <c r="G8" t="n">
-        <v>20.53477599125307</v>
+        <v>92.51186031867854</v>
       </c>
       <c r="H8" t="n">
-        <v>20.53477599125307</v>
+        <v>92.51186031867854</v>
       </c>
       <c r="I8" t="n">
         <v>20.53477599125307</v>
@@ -4811,10 +4811,10 @@
         <v>216.2315286141923</v>
       </c>
       <c r="M8" t="n">
-        <v>228.8275459573346</v>
+        <v>320.9832645732926</v>
       </c>
       <c r="N8" t="n">
-        <v>228.8275459573346</v>
+        <v>320.9832645732926</v>
       </c>
       <c r="O8" t="n">
         <v>333.5792819164349</v>
@@ -4826,28 +4826,28 @@
         <v>413.1477218402588</v>
       </c>
       <c r="R8" t="n">
-        <v>306.2691013330654</v>
+        <v>413.1477218402588</v>
       </c>
       <c r="S8" t="n">
-        <v>199.3904808258719</v>
+        <v>413.1477218402588</v>
       </c>
       <c r="T8" t="n">
-        <v>199.3904808258719</v>
+        <v>413.1477218402588</v>
       </c>
       <c r="U8" t="n">
-        <v>199.3904808258719</v>
+        <v>413.1477218402588</v>
       </c>
       <c r="V8" t="n">
-        <v>199.3904808258719</v>
+        <v>413.1477218402588</v>
       </c>
       <c r="W8" t="n">
-        <v>199.3904808258719</v>
+        <v>413.1477218402588</v>
       </c>
       <c r="X8" t="n">
-        <v>199.3904808258719</v>
+        <v>413.1477218402588</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.3904808258719</v>
+        <v>413.1477218402588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>420.1544100613792</v>
+        <v>423.2393372084858</v>
       </c>
       <c r="C9" t="n">
-        <v>420.1544100613792</v>
+        <v>423.2393372084858</v>
       </c>
       <c r="D9" t="n">
-        <v>313.2757895541857</v>
+        <v>423.2393372084858</v>
       </c>
       <c r="E9" t="n">
-        <v>206.3971690469924</v>
+        <v>316.3607167012924</v>
       </c>
       <c r="F9" t="n">
-        <v>206.3971690469924</v>
+        <v>209.482096194099</v>
       </c>
       <c r="G9" t="n">
-        <v>206.3971690469924</v>
+        <v>116.0975399041488</v>
       </c>
       <c r="H9" t="n">
-        <v>99.51854853979894</v>
+        <v>9.21891939695543</v>
       </c>
       <c r="I9" t="n">
         <v>9.21891939695543</v>
@@ -4884,22 +4884,22 @@
         <v>8.464786744169716</v>
       </c>
       <c r="K9" t="n">
+        <v>8.464786744169716</v>
+      </c>
+      <c r="L9" t="n">
         <v>113.21652270327</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
+        <v>113.21652270327</v>
+      </c>
+      <c r="N9" t="n">
         <v>217.9682586623702</v>
       </c>
-      <c r="M9" t="n">
-        <v>249.0930427360563</v>
-      </c>
-      <c r="N9" t="n">
-        <v>353.8447786951565</v>
-      </c>
       <c r="O9" t="n">
-        <v>353.8447786951565</v>
+        <v>322.7199946214704</v>
       </c>
       <c r="P9" t="n">
-        <v>353.8447786951565</v>
+        <v>423.2393372084858</v>
       </c>
       <c r="Q9" t="n">
         <v>423.2393372084858</v>
@@ -4920,13 +4920,13 @@
         <v>423.2393372084858</v>
       </c>
       <c r="W9" t="n">
-        <v>420.1544100613792</v>
+        <v>423.2393372084858</v>
       </c>
       <c r="X9" t="n">
-        <v>420.1544100613792</v>
+        <v>423.2393372084858</v>
       </c>
       <c r="Y9" t="n">
-        <v>420.1544100613792</v>
+        <v>423.2393372084858</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.464786744169716</v>
+        <v>137.8378434391236</v>
       </c>
       <c r="C10" t="n">
-        <v>8.464786744169716</v>
+        <v>137.8378434391236</v>
       </c>
       <c r="D10" t="n">
-        <v>8.464786744169716</v>
+        <v>137.8378434391236</v>
       </c>
       <c r="E10" t="n">
-        <v>8.464786744169716</v>
+        <v>137.8378434391236</v>
       </c>
       <c r="F10" t="n">
-        <v>8.464786744169716</v>
+        <v>30.95922293193018</v>
       </c>
       <c r="G10" t="n">
-        <v>8.464786744169716</v>
+        <v>30.95922293193018</v>
       </c>
       <c r="H10" t="n">
-        <v>8.464786744169716</v>
+        <v>30.95922293193018</v>
       </c>
       <c r="I10" t="n">
-        <v>8.464786744169716</v>
+        <v>30.95922293193018</v>
       </c>
       <c r="J10" t="n">
-        <v>8.464786744169716</v>
+        <v>30.95922293193018</v>
       </c>
       <c r="K10" t="n">
         <v>8.464786744169716</v>
@@ -5002,10 +5002,10 @@
         <v>140.2481471989793</v>
       </c>
       <c r="X10" t="n">
-        <v>140.2481471989793</v>
+        <v>137.8378434391236</v>
       </c>
       <c r="Y10" t="n">
-        <v>115.3434072513631</v>
+        <v>137.8378434391236</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1872.287156420794</v>
+        <v>1792.275645891051</v>
       </c>
       <c r="C11" t="n">
-        <v>1872.287156420794</v>
+        <v>1792.275645891051</v>
       </c>
       <c r="D11" t="n">
-        <v>1532.780442308493</v>
+        <v>1452.76893177875</v>
       </c>
       <c r="E11" t="n">
-        <v>1165.751174204698</v>
+        <v>1085.739663674955</v>
       </c>
       <c r="F11" t="n">
-        <v>773.5242539095399</v>
+        <v>869.2600567788415</v>
       </c>
       <c r="G11" t="n">
-        <v>375.3302905224259</v>
+        <v>471.0660933917273</v>
       </c>
       <c r="H11" t="n">
-        <v>77.24702728350596</v>
+        <v>172.9828301528074</v>
       </c>
       <c r="I11" t="n">
         <v>77.24702728350596</v>
@@ -5045,10 +5045,10 @@
         <v>697.3802268000031</v>
       </c>
       <c r="L11" t="n">
-        <v>1271.047854704364</v>
+        <v>1271.047854704363</v>
       </c>
       <c r="M11" t="n">
-        <v>1925.970170139229</v>
+        <v>1925.970170139228</v>
       </c>
       <c r="N11" t="n">
         <v>2576.857815792217</v>
@@ -5066,25 +5066,25 @@
         <v>3862.351364175298</v>
       </c>
       <c r="S11" t="n">
-        <v>3847.450638913083</v>
+        <v>3727.967838252848</v>
       </c>
       <c r="T11" t="n">
-        <v>3847.450638913083</v>
+        <v>3532.517196333501</v>
       </c>
       <c r="U11" t="n">
-        <v>3612.528706863244</v>
+        <v>3532.517196333501</v>
       </c>
       <c r="V11" t="n">
-        <v>3300.224804014123</v>
+        <v>3220.21329348438</v>
       </c>
       <c r="W11" t="n">
-        <v>2966.215133238458</v>
+        <v>2886.203622708716</v>
       </c>
       <c r="X11" t="n">
-        <v>2611.508359471828</v>
+        <v>2531.496848942085</v>
       </c>
       <c r="Y11" t="n">
-        <v>2240.128011990466</v>
+        <v>2160.116501460723</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>77.24702728350596</v>
       </c>
       <c r="J12" t="n">
-        <v>77.75640102873081</v>
+        <v>202.5865260157356</v>
       </c>
       <c r="K12" t="n">
-        <v>156.7818266161011</v>
+        <v>543.4325362455586</v>
       </c>
       <c r="L12" t="n">
-        <v>579.9553058816023</v>
+        <v>696.0145144461746</v>
       </c>
       <c r="M12" t="n">
-        <v>1238.416158899519</v>
+        <v>1189.710453687609</v>
       </c>
       <c r="N12" t="n">
-        <v>1930.011524772859</v>
+        <v>1406.756868960831</v>
       </c>
       <c r="O12" t="n">
-        <v>2496.270492174031</v>
+        <v>1973.015836362003</v>
       </c>
       <c r="P12" t="n">
-        <v>2618.462027154943</v>
+        <v>2410.485512296453</v>
       </c>
       <c r="Q12" t="n">
         <v>2650.224635923872</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>595.0802714523006</v>
+        <v>506.365713477427</v>
       </c>
       <c r="C13" t="n">
-        <v>595.0802714523006</v>
+        <v>356.1885150439696</v>
       </c>
       <c r="D13" t="n">
-        <v>595.0802714523006</v>
+        <v>356.1885150439696</v>
       </c>
       <c r="E13" t="n">
-        <v>465.926162364357</v>
+        <v>227.0344059560261</v>
       </c>
       <c r="F13" t="n">
-        <v>465.926162364357</v>
+        <v>227.0344059560261</v>
       </c>
       <c r="G13" t="n">
-        <v>316.1387836918368</v>
+        <v>77.24702728350596</v>
       </c>
       <c r="H13" t="n">
-        <v>181.1808636062213</v>
+        <v>77.24702728350596</v>
       </c>
       <c r="I13" t="n">
         <v>77.24702728350596</v>
       </c>
       <c r="J13" t="n">
-        <v>82.30479673336055</v>
+        <v>82.30479673336059</v>
       </c>
       <c r="K13" t="n">
-        <v>208.6254617884663</v>
+        <v>208.6254617884665</v>
       </c>
       <c r="L13" t="n">
-        <v>420.6571963506337</v>
+        <v>420.6571963506339</v>
       </c>
       <c r="M13" t="n">
-        <v>653.6046127624033</v>
+        <v>653.6046127624036</v>
       </c>
       <c r="N13" t="n">
-        <v>886.8848470899314</v>
+        <v>886.8848470899319</v>
       </c>
       <c r="O13" t="n">
         <v>1087.744134242092</v>
@@ -5218,31 +5218,31 @@
         <v>1238.746826323083</v>
       </c>
       <c r="Q13" t="n">
-        <v>1265.514571466952</v>
+        <v>1265.514571466953</v>
       </c>
       <c r="R13" t="n">
-        <v>1265.514571466952</v>
+        <v>1265.514571466953</v>
       </c>
       <c r="S13" t="n">
-        <v>1265.514571466952</v>
+        <v>1124.241664326042</v>
       </c>
       <c r="T13" t="n">
-        <v>1101.395668082283</v>
+        <v>917.6298745300753</v>
       </c>
       <c r="U13" t="n">
-        <v>831.005775163738</v>
+        <v>917.6298745300753</v>
       </c>
       <c r="V13" t="n">
-        <v>595.0802714523006</v>
+        <v>917.6298745300753</v>
       </c>
       <c r="W13" t="n">
-        <v>595.0802714523006</v>
+        <v>917.6298745300753</v>
       </c>
       <c r="X13" t="n">
-        <v>595.0802714523006</v>
+        <v>708.3993081265075</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.0802714523006</v>
+        <v>506.365713477427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1978.719777623757</v>
+        <v>1912.060487607844</v>
       </c>
       <c r="C14" t="n">
-        <v>1628.516245177795</v>
+        <v>1575.796038994937</v>
       </c>
       <c r="D14" t="n">
-        <v>1628.516245177795</v>
+        <v>1236.289324882636</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.486977074</v>
+        <v>869.2600567788415</v>
       </c>
       <c r="F14" t="n">
-        <v>869.260056778842</v>
+        <v>869.2600567788415</v>
       </c>
       <c r="G14" t="n">
         <v>471.0660933917273</v>
@@ -5273,55 +5273,55 @@
         <v>172.9828301528075</v>
       </c>
       <c r="I14" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J14" t="n">
-        <v>277.1030507322299</v>
+        <v>277.10305073223</v>
       </c>
       <c r="K14" t="n">
         <v>697.3802268000029</v>
       </c>
       <c r="L14" t="n">
-        <v>1271.047854704363</v>
+        <v>1271.047854704364</v>
       </c>
       <c r="M14" t="n">
-        <v>1925.970170139228</v>
+        <v>1925.97017013923</v>
       </c>
       <c r="N14" t="n">
-        <v>2576.857815792217</v>
+        <v>2576.857815792218</v>
       </c>
       <c r="O14" t="n">
-        <v>3146.284924751056</v>
+        <v>3146.284924751057</v>
       </c>
       <c r="P14" t="n">
-        <v>3594.603405178119</v>
+        <v>3594.60340517812</v>
       </c>
       <c r="Q14" t="n">
-        <v>3854.050153535503</v>
+        <v>3854.050153535504</v>
       </c>
       <c r="R14" t="n">
-        <v>3862.351364175298</v>
+        <v>3862.351364175299</v>
       </c>
       <c r="S14" t="n">
-        <v>3727.967838252847</v>
+        <v>3727.967838252849</v>
       </c>
       <c r="T14" t="n">
-        <v>3619.873589340382</v>
+        <v>3532.517196333502</v>
       </c>
       <c r="U14" t="n">
-        <v>3384.951657290543</v>
+        <v>3297.595264283664</v>
       </c>
       <c r="V14" t="n">
-        <v>3072.647754441422</v>
+        <v>2985.291361434543</v>
       </c>
       <c r="W14" t="n">
-        <v>3072.647754441422</v>
+        <v>2651.281690658878</v>
       </c>
       <c r="X14" t="n">
-        <v>2717.940980674791</v>
+        <v>2651.281690658878</v>
       </c>
       <c r="Y14" t="n">
-        <v>2346.560633193429</v>
+        <v>2279.901343177516</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>220.8872644336653</v>
       </c>
       <c r="H15" t="n">
-        <v>120.6680311236163</v>
+        <v>120.6680311236164</v>
       </c>
       <c r="I15" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J15" t="n">
         <v>202.5865260157356</v>
       </c>
       <c r="K15" t="n">
-        <v>543.4325362455586</v>
+        <v>543.4325362455587</v>
       </c>
       <c r="L15" t="n">
         <v>1063.146456296599</v>
       </c>
       <c r="M15" t="n">
-        <v>1260.559296202016</v>
+        <v>1579.634149771571</v>
       </c>
       <c r="N15" t="n">
-        <v>1477.605711475238</v>
+        <v>1796.680565044793</v>
       </c>
       <c r="O15" t="n">
         <v>1973.015836362003</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119.0397191627025</v>
+        <v>586.2110014793946</v>
       </c>
       <c r="C16" t="n">
-        <v>119.0397191627025</v>
+        <v>436.0338030459372</v>
       </c>
       <c r="D16" t="n">
-        <v>119.0397191627025</v>
+        <v>436.0338030459372</v>
       </c>
       <c r="E16" t="n">
-        <v>119.0397191627025</v>
+        <v>306.8796939579937</v>
       </c>
       <c r="F16" t="n">
-        <v>119.0397191627025</v>
+        <v>178.7487309545329</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0397191627025</v>
+        <v>178.7487309545329</v>
       </c>
       <c r="H16" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="I16" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J16" t="n">
-        <v>82.30479673336049</v>
+        <v>82.30479673336072</v>
       </c>
       <c r="K16" t="n">
-        <v>208.6254617884663</v>
+        <v>208.6254617884666</v>
       </c>
       <c r="L16" t="n">
-        <v>420.6571963506336</v>
+        <v>420.657196350634</v>
       </c>
       <c r="M16" t="n">
-        <v>653.6046127624033</v>
+        <v>653.6046127624037</v>
       </c>
       <c r="N16" t="n">
-        <v>886.8848470899314</v>
+        <v>886.8848470899319</v>
       </c>
       <c r="O16" t="n">
         <v>1087.744134242092</v>
@@ -5455,31 +5455,31 @@
         <v>1238.746826323083</v>
       </c>
       <c r="Q16" t="n">
-        <v>1265.514571466952</v>
+        <v>1265.514571466953</v>
       </c>
       <c r="R16" t="n">
-        <v>1265.514571466952</v>
+        <v>1265.514571466953</v>
       </c>
       <c r="S16" t="n">
-        <v>1265.514571466952</v>
+        <v>1265.514571466953</v>
       </c>
       <c r="T16" t="n">
         <v>1058.902781670986</v>
       </c>
       <c r="U16" t="n">
-        <v>788.5128887524411</v>
+        <v>1058.902781670986</v>
       </c>
       <c r="V16" t="n">
-        <v>552.5873850410037</v>
+        <v>1058.902781670986</v>
       </c>
       <c r="W16" t="n">
-        <v>281.9291994984927</v>
+        <v>788.2445961284751</v>
       </c>
       <c r="X16" t="n">
-        <v>281.9291994984927</v>
+        <v>788.2445961284751</v>
       </c>
       <c r="Y16" t="n">
-        <v>281.9291994984927</v>
+        <v>586.2110014793946</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1963.152528718463</v>
+        <v>1963.152528718464</v>
       </c>
       <c r="C17" t="n">
-        <v>1663.673848132157</v>
+        <v>1663.673848132158</v>
       </c>
       <c r="D17" t="n">
-        <v>1374.891985879513</v>
+        <v>1374.891985879514</v>
       </c>
       <c r="E17" t="n">
-        <v>1058.587569635374</v>
+        <v>1058.587569635375</v>
       </c>
       <c r="F17" t="n">
-        <v>717.0855011998726</v>
+        <v>717.0855011998738</v>
       </c>
       <c r="G17" t="n">
-        <v>369.6163896724147</v>
+        <v>369.6163896724146</v>
       </c>
       <c r="H17" t="n">
-        <v>122.257978293151</v>
+        <v>122.2579782931511</v>
       </c>
       <c r="I17" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J17" t="n">
-        <v>277.1030507322299</v>
+        <v>277.10305073223</v>
       </c>
       <c r="K17" t="n">
         <v>697.3802268000029</v>
@@ -5522,43 +5522,43 @@
         <v>1271.047854704363</v>
       </c>
       <c r="M17" t="n">
-        <v>1925.970170139228</v>
+        <v>1925.97017013923</v>
       </c>
       <c r="N17" t="n">
-        <v>2576.857815792217</v>
+        <v>2576.857815792218</v>
       </c>
       <c r="O17" t="n">
-        <v>3146.284924751056</v>
+        <v>3146.284924751057</v>
       </c>
       <c r="P17" t="n">
-        <v>3594.603405178119</v>
+        <v>3594.60340517812</v>
       </c>
       <c r="Q17" t="n">
-        <v>3854.050153535503</v>
+        <v>3854.050153535504</v>
       </c>
       <c r="R17" t="n">
-        <v>3862.351364175298</v>
+        <v>3862.351364175299</v>
       </c>
       <c r="S17" t="n">
-        <v>3778.692690112504</v>
+        <v>3778.692690112505</v>
       </c>
       <c r="T17" t="n">
-        <v>3633.966900052813</v>
+        <v>3633.966900052815</v>
       </c>
       <c r="U17" t="n">
-        <v>3449.769819862631</v>
+        <v>3449.769819862633</v>
       </c>
       <c r="V17" t="n">
-        <v>3188.190768873166</v>
+        <v>3188.190768873168</v>
       </c>
       <c r="W17" t="n">
-        <v>2904.905949957158</v>
+        <v>2904.90594995716</v>
       </c>
       <c r="X17" t="n">
-        <v>2600.924028050184</v>
+        <v>2600.924028050186</v>
       </c>
       <c r="Y17" t="n">
-        <v>2280.268532428479</v>
+        <v>2280.26853242848</v>
       </c>
     </row>
     <row r="18">
@@ -5586,16 +5586,16 @@
         <v>220.8872644336653</v>
       </c>
       <c r="H18" t="n">
-        <v>120.6680311236163</v>
+        <v>120.6680311236164</v>
       </c>
       <c r="I18" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J18" t="n">
         <v>202.5865260157356</v>
       </c>
       <c r="K18" t="n">
-        <v>543.4325362455586</v>
+        <v>543.4325362455587</v>
       </c>
       <c r="L18" t="n">
         <v>1063.146456296599</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>419.9945023697829</v>
+        <v>377.5605115792756</v>
       </c>
       <c r="C19" t="n">
-        <v>320.542155795982</v>
+        <v>377.5605115792756</v>
       </c>
       <c r="D19" t="n">
-        <v>239.9093527377522</v>
+        <v>332.1449224684615</v>
       </c>
       <c r="E19" t="n">
-        <v>161.4800955094651</v>
+        <v>253.7156652401743</v>
       </c>
       <c r="F19" t="n">
-        <v>161.4800955094651</v>
+        <v>176.3095540963698</v>
       </c>
       <c r="G19" t="n">
-        <v>161.4800955094651</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="H19" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="I19" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J19" t="n">
         <v>132.0202240410098</v>
       </c>
       <c r="K19" t="n">
-        <v>308.0563164037649</v>
+        <v>308.0563164037648</v>
       </c>
       <c r="L19" t="n">
-        <v>569.8034782735815</v>
+        <v>569.8034782735813</v>
       </c>
       <c r="M19" t="n">
-        <v>852.4663219930005</v>
+        <v>852.4663219930002</v>
       </c>
       <c r="N19" t="n">
-        <v>1135.461983628178</v>
+        <v>1135.461983628177</v>
       </c>
       <c r="O19" t="n">
         <v>1386.036698087987</v>
       </c>
       <c r="P19" t="n">
-        <v>1586.754817476628</v>
+        <v>1586.754817476627</v>
       </c>
       <c r="Q19" t="n">
-        <v>1663.237989928147</v>
+        <v>1663.237989928146</v>
       </c>
       <c r="R19" t="n">
-        <v>1604.963348356216</v>
+        <v>1604.963348356215</v>
       </c>
       <c r="S19" t="n">
         <v>1468.060933442446</v>
       </c>
       <c r="T19" t="n">
-        <v>1312.173995506136</v>
+        <v>1312.173995506135</v>
       </c>
       <c r="U19" t="n">
-        <v>1092.508954447248</v>
+        <v>1092.508954447247</v>
       </c>
       <c r="V19" t="n">
-        <v>1061.906921862107</v>
+        <v>907.3083025954659</v>
       </c>
       <c r="W19" t="n">
-        <v>841.9735881792524</v>
+        <v>687.3749689126112</v>
       </c>
       <c r="X19" t="n">
-        <v>683.467873635341</v>
+        <v>528.8692543686998</v>
       </c>
       <c r="Y19" t="n">
-        <v>532.1591308459167</v>
+        <v>377.5605115792756</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1963.152528718464</v>
+        <v>1963.152528718463</v>
       </c>
       <c r="C20" t="n">
-        <v>1663.673848132158</v>
+        <v>1663.673848132157</v>
       </c>
       <c r="D20" t="n">
         <v>1374.891985879513</v>
       </c>
       <c r="E20" t="n">
-        <v>1058.587569635375</v>
+        <v>1058.587569635374</v>
       </c>
       <c r="F20" t="n">
-        <v>717.0855011998731</v>
+        <v>717.0855011998727</v>
       </c>
       <c r="G20" t="n">
-        <v>369.6163896724152</v>
+        <v>369.6163896724147</v>
       </c>
       <c r="H20" t="n">
-        <v>122.2579782931511</v>
+        <v>122.2579782931512</v>
       </c>
       <c r="I20" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J20" t="n">
-        <v>277.1030507322298</v>
+        <v>277.10305073223</v>
       </c>
       <c r="K20" t="n">
-        <v>697.3802268000027</v>
+        <v>697.3802268000029</v>
       </c>
       <c r="L20" t="n">
-        <v>1271.047854704362</v>
+        <v>1271.047854704363</v>
       </c>
       <c r="M20" t="n">
         <v>1925.970170139228</v>
@@ -5765,34 +5765,34 @@
         <v>2576.857815792217</v>
       </c>
       <c r="O20" t="n">
-        <v>3146.284924751055</v>
+        <v>3146.284924751056</v>
       </c>
       <c r="P20" t="n">
-        <v>3594.603405178118</v>
+        <v>3594.603405178119</v>
       </c>
       <c r="Q20" t="n">
         <v>3854.050153535503</v>
       </c>
       <c r="R20" t="n">
-        <v>3862.351364175298</v>
+        <v>3862.351364175299</v>
       </c>
       <c r="S20" t="n">
-        <v>3778.692690112504</v>
+        <v>3778.692690112505</v>
       </c>
       <c r="T20" t="n">
-        <v>3633.966900052814</v>
+        <v>3633.966900052815</v>
       </c>
       <c r="U20" t="n">
         <v>3449.769819862632</v>
       </c>
       <c r="V20" t="n">
-        <v>3188.190768873168</v>
+        <v>3188.190768873167</v>
       </c>
       <c r="W20" t="n">
         <v>2904.905949957159</v>
       </c>
       <c r="X20" t="n">
-        <v>2600.924028050185</v>
+        <v>2600.924028050184</v>
       </c>
       <c r="Y20" t="n">
         <v>2280.268532428479</v>
@@ -5823,28 +5823,28 @@
         <v>220.8872644336653</v>
       </c>
       <c r="H21" t="n">
-        <v>120.6680311236163</v>
+        <v>120.6680311236164</v>
       </c>
       <c r="I21" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J21" t="n">
-        <v>131.737683501328</v>
+        <v>202.5865260157356</v>
       </c>
       <c r="K21" t="n">
-        <v>472.5836937311511</v>
+        <v>281.6119516031059</v>
       </c>
       <c r="L21" t="n">
-        <v>992.2976137821918</v>
+        <v>761.9024871070737</v>
       </c>
       <c r="M21" t="n">
-        <v>1189.710453687609</v>
+        <v>1420.36334012499</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.756868960831</v>
+        <v>2111.958705998331</v>
       </c>
       <c r="O21" t="n">
-        <v>1973.015836362003</v>
+        <v>2288.29397731554</v>
       </c>
       <c r="P21" t="n">
         <v>2410.485512296453</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>377.5605115792758</v>
+        <v>512.2300721004924</v>
       </c>
       <c r="C22" t="n">
-        <v>278.1081650054748</v>
+        <v>412.7777255266914</v>
       </c>
       <c r="D22" t="n">
-        <v>214.6890799725241</v>
+        <v>332.1449224684616</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6890799725241</v>
+        <v>253.7156652401743</v>
       </c>
       <c r="F22" t="n">
-        <v>214.6890799725241</v>
+        <v>176.3095540963698</v>
       </c>
       <c r="G22" t="n">
-        <v>214.6890799725241</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="H22" t="n">
-        <v>130.4560117465649</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="I22" t="n">
-        <v>77.24702728350596</v>
+        <v>77.24702728350599</v>
       </c>
       <c r="J22" t="n">
-        <v>132.0202240410101</v>
+        <v>132.0202240410096</v>
       </c>
       <c r="K22" t="n">
-        <v>308.0563164037651</v>
+        <v>308.0563164037646</v>
       </c>
       <c r="L22" t="n">
-        <v>569.8034782735817</v>
+        <v>569.8034782735812</v>
       </c>
       <c r="M22" t="n">
-        <v>852.4663219930004</v>
+        <v>852.4663219930001</v>
       </c>
       <c r="N22" t="n">
-        <v>1135.461983628178</v>
+        <v>1135.461983628177</v>
       </c>
       <c r="O22" t="n">
         <v>1386.036698087987</v>
@@ -5932,28 +5932,28 @@
         <v>1663.237989928146</v>
       </c>
       <c r="R22" t="n">
-        <v>1604.963348356215</v>
+        <v>1663.237989928146</v>
       </c>
       <c r="S22" t="n">
-        <v>1468.060933442446</v>
+        <v>1526.335575014377</v>
       </c>
       <c r="T22" t="n">
-        <v>1312.173995506135</v>
+        <v>1370.448637078066</v>
       </c>
       <c r="U22" t="n">
-        <v>1092.508954447247</v>
+        <v>1150.783596019179</v>
       </c>
       <c r="V22" t="n">
-        <v>907.3083025954661</v>
+        <v>965.5829441673978</v>
       </c>
       <c r="W22" t="n">
-        <v>687.3749689126114</v>
+        <v>934.2091579099621</v>
       </c>
       <c r="X22" t="n">
-        <v>528.8692543687</v>
+        <v>775.7034433660506</v>
       </c>
       <c r="Y22" t="n">
-        <v>377.5605115792758</v>
+        <v>624.3947005766263</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1963.152528718461</v>
+        <v>1963.152528718462</v>
       </c>
       <c r="C23" t="n">
-        <v>1663.673848132156</v>
+        <v>1663.673848132157</v>
       </c>
       <c r="D23" t="n">
-        <v>1374.891985879511</v>
+        <v>1374.891985879512</v>
       </c>
       <c r="E23" t="n">
-        <v>1058.587569635373</v>
+        <v>1058.587569635374</v>
       </c>
       <c r="F23" t="n">
-        <v>717.0855011998713</v>
+        <v>717.0855011998724</v>
       </c>
       <c r="G23" t="n">
-        <v>369.6163896724133</v>
+        <v>369.6163896724146</v>
       </c>
       <c r="H23" t="n">
         <v>122.257978293151</v>
@@ -5987,52 +5987,52 @@
         <v>77.24702728350596</v>
       </c>
       <c r="J23" t="n">
-        <v>277.1030507322296</v>
+        <v>277.1030507322303</v>
       </c>
       <c r="K23" t="n">
-        <v>697.3802268000026</v>
+        <v>697.3802268000031</v>
       </c>
       <c r="L23" t="n">
-        <v>1271.047854704362</v>
+        <v>1271.047854704364</v>
       </c>
       <c r="M23" t="n">
         <v>1925.970170139228</v>
       </c>
       <c r="N23" t="n">
-        <v>2576.857815792216</v>
+        <v>2576.857815792217</v>
       </c>
       <c r="O23" t="n">
-        <v>3146.284924751055</v>
+        <v>3146.284924751056</v>
       </c>
       <c r="P23" t="n">
-        <v>3594.603405178118</v>
+        <v>3594.603405178119</v>
       </c>
       <c r="Q23" t="n">
-        <v>3854.050153535502</v>
+        <v>3854.050153535503</v>
       </c>
       <c r="R23" t="n">
-        <v>3862.351364175297</v>
+        <v>3862.351364175298</v>
       </c>
       <c r="S23" t="n">
-        <v>3778.692690112503</v>
+        <v>3778.692690112504</v>
       </c>
       <c r="T23" t="n">
-        <v>3633.966900052812</v>
+        <v>3633.966900052813</v>
       </c>
       <c r="U23" t="n">
-        <v>3449.769819862629</v>
+        <v>3449.769819862631</v>
       </c>
       <c r="V23" t="n">
-        <v>3188.190768873165</v>
+        <v>3188.190768873166</v>
       </c>
       <c r="W23" t="n">
-        <v>2904.905949957157</v>
+        <v>2904.905949957158</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.924028050183</v>
+        <v>2600.924028050184</v>
       </c>
       <c r="Y23" t="n">
-        <v>2280.268532428477</v>
+        <v>2280.268532428478</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>202.5865260157356</v>
       </c>
       <c r="K24" t="n">
-        <v>281.6119516031059</v>
+        <v>543.4325362455586</v>
       </c>
       <c r="L24" t="n">
-        <v>434.1939298037219</v>
+        <v>696.0145144461746</v>
       </c>
       <c r="M24" t="n">
-        <v>1092.654782821638</v>
+        <v>1354.475367464091</v>
       </c>
       <c r="N24" t="n">
-        <v>1784.250148694979</v>
+        <v>2046.070733337431</v>
       </c>
       <c r="O24" t="n">
-        <v>1973.015836362003</v>
+        <v>2496.270492174031</v>
       </c>
       <c r="P24" t="n">
-        <v>2410.485512296453</v>
+        <v>2618.462027154943</v>
       </c>
       <c r="Q24" t="n">
         <v>2650.224635923872</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3958831031433</v>
+        <v>474.9792674644988</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9435365293424</v>
+        <v>375.5269208906979</v>
       </c>
       <c r="D25" t="n">
-        <v>165.9435365293424</v>
+        <v>294.8941178324681</v>
       </c>
       <c r="E25" t="n">
-        <v>165.9435365293424</v>
+        <v>216.4648606041809</v>
       </c>
       <c r="F25" t="n">
-        <v>165.9435365293424</v>
+        <v>161.4800955094651</v>
       </c>
       <c r="G25" t="n">
-        <v>77.24702728350596</v>
+        <v>161.4800955094651</v>
       </c>
       <c r="H25" t="n">
         <v>77.24702728350596</v>
@@ -6145,22 +6145,22 @@
         <v>77.24702728350596</v>
       </c>
       <c r="J25" t="n">
-        <v>132.0202240410099</v>
+        <v>132.0202240410098</v>
       </c>
       <c r="K25" t="n">
-        <v>308.056316403765</v>
+        <v>308.0563164037649</v>
       </c>
       <c r="L25" t="n">
-        <v>569.8034782735816</v>
+        <v>569.8034782735815</v>
       </c>
       <c r="M25" t="n">
-        <v>852.4663219930006</v>
+        <v>852.4663219930005</v>
       </c>
       <c r="N25" t="n">
         <v>1135.461983628178</v>
       </c>
       <c r="O25" t="n">
-        <v>1386.036698087988</v>
+        <v>1386.036698087987</v>
       </c>
       <c r="P25" t="n">
         <v>1586.754817476628</v>
@@ -6169,28 +6169,28 @@
         <v>1663.237989928147</v>
       </c>
       <c r="R25" t="n">
-        <v>1604.963348356216</v>
+        <v>1663.237989928147</v>
       </c>
       <c r="S25" t="n">
-        <v>1468.060933442447</v>
+        <v>1526.335575014378</v>
       </c>
       <c r="T25" t="n">
-        <v>1312.173995506136</v>
+        <v>1370.448637078067</v>
       </c>
       <c r="U25" t="n">
-        <v>1092.508954447248</v>
+        <v>1150.783596019179</v>
       </c>
       <c r="V25" t="n">
-        <v>907.3083025954676</v>
+        <v>965.5829441673985</v>
       </c>
       <c r="W25" t="n">
-        <v>687.374968912613</v>
+        <v>745.6496104845439</v>
       </c>
       <c r="X25" t="n">
-        <v>528.8692543687011</v>
+        <v>587.1438959406325</v>
       </c>
       <c r="Y25" t="n">
-        <v>377.560511579277</v>
+        <v>587.1438959406325</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1963.152528718461</v>
+        <v>1963.152528718463</v>
       </c>
       <c r="C26" t="n">
-        <v>1663.673848132155</v>
+        <v>1663.673848132157</v>
       </c>
       <c r="D26" t="n">
-        <v>1374.891985879511</v>
+        <v>1374.891985879513</v>
       </c>
       <c r="E26" t="n">
-        <v>1058.587569635373</v>
+        <v>1058.587569635374</v>
       </c>
       <c r="F26" t="n">
-        <v>717.0855011998719</v>
+        <v>717.0855011998729</v>
       </c>
       <c r="G26" t="n">
-        <v>369.6163896724145</v>
+        <v>369.6163896724146</v>
       </c>
       <c r="H26" t="n">
         <v>122.257978293151</v>
@@ -6224,13 +6224,13 @@
         <v>77.24702728350596</v>
       </c>
       <c r="J26" t="n">
-        <v>277.10305073223</v>
+        <v>277.1030507322298</v>
       </c>
       <c r="K26" t="n">
-        <v>697.3802268000029</v>
+        <v>697.3802268000027</v>
       </c>
       <c r="L26" t="n">
-        <v>1271.047854704363</v>
+        <v>1271.047854704362</v>
       </c>
       <c r="M26" t="n">
         <v>1925.970170139228</v>
@@ -6245,31 +6245,31 @@
         <v>3594.603405178118</v>
       </c>
       <c r="Q26" t="n">
-        <v>3854.050153535502</v>
+        <v>3854.050153535503</v>
       </c>
       <c r="R26" t="n">
-        <v>3862.351364175297</v>
+        <v>3862.351364175298</v>
       </c>
       <c r="S26" t="n">
-        <v>3778.692690112503</v>
+        <v>3778.692690112504</v>
       </c>
       <c r="T26" t="n">
-        <v>3633.966900052813</v>
+        <v>3633.966900052814</v>
       </c>
       <c r="U26" t="n">
-        <v>3449.76981986263</v>
+        <v>3449.769819862631</v>
       </c>
       <c r="V26" t="n">
-        <v>3188.190768873165</v>
+        <v>3188.190768873167</v>
       </c>
       <c r="W26" t="n">
-        <v>2904.905949957157</v>
+        <v>2904.905949957159</v>
       </c>
       <c r="X26" t="n">
-        <v>2600.924028050183</v>
+        <v>2600.924028050184</v>
       </c>
       <c r="Y26" t="n">
-        <v>2280.268532428477</v>
+        <v>2280.268532428479</v>
       </c>
     </row>
     <row r="27">
@@ -6303,16 +6303,16 @@
         <v>77.24702728350596</v>
       </c>
       <c r="J27" t="n">
-        <v>77.75640102873081</v>
+        <v>131.737683501328</v>
       </c>
       <c r="K27" t="n">
-        <v>418.6024112585539</v>
+        <v>472.5836937311511</v>
       </c>
       <c r="L27" t="n">
-        <v>938.3163313095945</v>
+        <v>992.2976137821918</v>
       </c>
       <c r="M27" t="n">
-        <v>1135.729171215011</v>
+        <v>1189.710453687609</v>
       </c>
       <c r="N27" t="n">
         <v>1406.756868960831</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>640.9478620983419</v>
+        <v>565.4390565635507</v>
       </c>
       <c r="C28" t="n">
-        <v>550.219778215709</v>
+        <v>465.9867099897497</v>
       </c>
       <c r="D28" t="n">
-        <v>469.5869751574792</v>
+        <v>385.35390693152</v>
       </c>
       <c r="E28" t="n">
-        <v>391.1577179291921</v>
+        <v>306.9246497032328</v>
       </c>
       <c r="F28" t="n">
-        <v>313.7516067853877</v>
+        <v>229.5185385594286</v>
       </c>
       <c r="G28" t="n">
-        <v>214.6890799725239</v>
+        <v>130.4560117465649</v>
       </c>
       <c r="H28" t="n">
-        <v>130.4560117465647</v>
+        <v>130.4560117465649</v>
       </c>
       <c r="I28" t="n">
         <v>77.24702728350596</v>
@@ -6385,10 +6385,10 @@
         <v>132.0202240410098</v>
       </c>
       <c r="K28" t="n">
-        <v>308.056316403765</v>
+        <v>308.0563164037649</v>
       </c>
       <c r="L28" t="n">
-        <v>569.8034782735816</v>
+        <v>569.8034782735815</v>
       </c>
       <c r="M28" t="n">
         <v>852.4663219930005</v>
@@ -6412,22 +6412,22 @@
         <v>1468.060933442446</v>
       </c>
       <c r="T28" t="n">
-        <v>1468.060933442446</v>
+        <v>1453.711454422632</v>
       </c>
       <c r="U28" t="n">
-        <v>1468.060933442446</v>
+        <v>1234.046413363744</v>
       </c>
       <c r="V28" t="n">
-        <v>1282.860281590666</v>
+        <v>1048.845761511963</v>
       </c>
       <c r="W28" t="n">
-        <v>1062.926947907811</v>
+        <v>828.9124278291087</v>
       </c>
       <c r="X28" t="n">
-        <v>904.4212333638997</v>
+        <v>828.9124278291087</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.1124905744756</v>
+        <v>677.6036850396845</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1058.587569635374</v>
       </c>
       <c r="F29" t="n">
-        <v>717.0855011998722</v>
+        <v>717.0855011998724</v>
       </c>
       <c r="G29" t="n">
         <v>369.6163896724145</v>
@@ -6461,10 +6461,10 @@
         <v>77.24702728350596</v>
       </c>
       <c r="J29" t="n">
-        <v>277.10305073223</v>
+        <v>277.1030507322298</v>
       </c>
       <c r="K29" t="n">
-        <v>697.3802268000029</v>
+        <v>697.3802268000028</v>
       </c>
       <c r="L29" t="n">
         <v>1271.047854704363</v>
@@ -6476,31 +6476,31 @@
         <v>2576.857815792217</v>
       </c>
       <c r="O29" t="n">
-        <v>3146.284924751056</v>
+        <v>3146.284924751055</v>
       </c>
       <c r="P29" t="n">
-        <v>3594.603405178119</v>
+        <v>3594.603405178118</v>
       </c>
       <c r="Q29" t="n">
         <v>3854.050153535503</v>
       </c>
       <c r="R29" t="n">
-        <v>3862.351364175297</v>
+        <v>3862.351364175298</v>
       </c>
       <c r="S29" t="n">
-        <v>3778.692690112503</v>
+        <v>3778.692690112504</v>
       </c>
       <c r="T29" t="n">
         <v>3633.966900052813</v>
       </c>
       <c r="U29" t="n">
-        <v>3449.76981986263</v>
+        <v>3449.769819862631</v>
       </c>
       <c r="V29" t="n">
-        <v>3188.190768873166</v>
+        <v>3188.190768873167</v>
       </c>
       <c r="W29" t="n">
-        <v>2904.905949957158</v>
+        <v>2904.905949957159</v>
       </c>
       <c r="X29" t="n">
         <v>2600.924028050184</v>
@@ -6540,25 +6540,25 @@
         <v>77.24702728350596</v>
       </c>
       <c r="J30" t="n">
-        <v>202.5865260157356</v>
+        <v>140.3713872351253</v>
       </c>
       <c r="K30" t="n">
-        <v>543.4325362455586</v>
+        <v>219.3968128224956</v>
       </c>
       <c r="L30" t="n">
-        <v>739.2261155281826</v>
+        <v>371.9787910231116</v>
       </c>
       <c r="M30" t="n">
-        <v>1397.686968546099</v>
+        <v>1030.439644041028</v>
       </c>
       <c r="N30" t="n">
-        <v>1614.733383819321</v>
+        <v>1722.035009914368</v>
       </c>
       <c r="O30" t="n">
-        <v>2180.992351220493</v>
+        <v>2288.29397731554</v>
       </c>
       <c r="P30" t="n">
-        <v>2618.462027154943</v>
+        <v>2410.485512296453</v>
       </c>
       <c r="Q30" t="n">
         <v>2650.224635923872</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>649.6721247895094</v>
+        <v>472.180340748359</v>
       </c>
       <c r="C31" t="n">
-        <v>550.2197782157085</v>
+        <v>372.727994174558</v>
       </c>
       <c r="D31" t="n">
-        <v>469.5869751574788</v>
+        <v>292.0951911163284</v>
       </c>
       <c r="E31" t="n">
-        <v>391.1577179291917</v>
+        <v>292.0951911163284</v>
       </c>
       <c r="F31" t="n">
-        <v>313.7516067853873</v>
+        <v>214.689079972524</v>
       </c>
       <c r="G31" t="n">
-        <v>214.6890799725236</v>
+        <v>214.689079972524</v>
       </c>
       <c r="H31" t="n">
         <v>130.4560117465648</v>
@@ -6622,13 +6622,13 @@
         <v>132.0202240410098</v>
       </c>
       <c r="K31" t="n">
-        <v>308.056316403765</v>
+        <v>308.0563164037649</v>
       </c>
       <c r="L31" t="n">
-        <v>569.8034782735816</v>
+        <v>569.8034782735815</v>
       </c>
       <c r="M31" t="n">
-        <v>852.4663219930007</v>
+        <v>852.4663219930005</v>
       </c>
       <c r="N31" t="n">
         <v>1135.461983628178</v>
@@ -6640,31 +6640,31 @@
         <v>1586.754817476628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1663.237989928148</v>
+        <v>1663.237989928147</v>
       </c>
       <c r="R31" t="n">
-        <v>1652.730195401377</v>
+        <v>1663.237989928147</v>
       </c>
       <c r="S31" t="n">
-        <v>1515.827780487608</v>
+        <v>1562.680762611529</v>
       </c>
       <c r="T31" t="n">
-        <v>1359.940842551297</v>
+        <v>1406.793824675218</v>
       </c>
       <c r="U31" t="n">
-        <v>1140.275801492409</v>
+        <v>1187.12878361633</v>
       </c>
       <c r="V31" t="n">
-        <v>1140.275801492409</v>
+        <v>1001.928131764549</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3424678095544</v>
+        <v>781.9947980816945</v>
       </c>
       <c r="X31" t="n">
-        <v>761.8367532656431</v>
+        <v>623.4890835377831</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.8367532656431</v>
+        <v>472.180340748359</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>1845.389312887019</v>
       </c>
       <c r="C32" t="n">
-        <v>1562.029061283229</v>
+        <v>1562.02906128323</v>
       </c>
       <c r="D32" t="n">
         <v>1289.365628013101</v>
       </c>
       <c r="E32" t="n">
-        <v>989.1796407514785</v>
+        <v>989.1796407514787</v>
       </c>
       <c r="F32" t="n">
-        <v>663.7960012984929</v>
+        <v>663.7960012984931</v>
       </c>
       <c r="G32" t="n">
-        <v>332.445318753551</v>
+        <v>332.4453187535511</v>
       </c>
       <c r="H32" t="n">
         <v>101.2053363568036</v>
       </c>
       <c r="I32" t="n">
-        <v>72.31281432967452</v>
+        <v>72.31281432967454</v>
       </c>
       <c r="J32" t="n">
-        <v>272.1688377783985</v>
+        <v>240.5842437939642</v>
       </c>
       <c r="K32" t="n">
-        <v>692.4460138461714</v>
+        <v>660.8614198617371</v>
       </c>
       <c r="L32" t="n">
-        <v>1266.113641750531</v>
+        <v>1234.529047766097</v>
       </c>
       <c r="M32" t="n">
-        <v>1687.560733087451</v>
+        <v>1889.451363200962</v>
       </c>
       <c r="N32" t="n">
-        <v>2338.44837874044</v>
+        <v>2540.339008853951</v>
       </c>
       <c r="O32" t="n">
-        <v>2907.875487699279</v>
+        <v>3109.76611781279</v>
       </c>
       <c r="P32" t="n">
-        <v>3356.193968126342</v>
+        <v>3558.084598239853</v>
       </c>
       <c r="Q32" t="n">
-        <v>3615.640716483726</v>
+        <v>3607.339505843931</v>
       </c>
       <c r="R32" t="n">
         <v>3615.640716483726</v>
@@ -6774,10 +6774,10 @@
         <v>115.7338181697849</v>
       </c>
       <c r="I33" t="n">
-        <v>72.31281432967452</v>
+        <v>72.31281432967454</v>
       </c>
       <c r="J33" t="n">
-        <v>72.82218807489937</v>
+        <v>72.82218807489939</v>
       </c>
       <c r="K33" t="n">
         <v>413.6681983047225</v>
@@ -6786,7 +6786,7 @@
         <v>933.3821183557632</v>
       </c>
       <c r="M33" t="n">
-        <v>1130.79495826118</v>
+        <v>1184.776240733777</v>
       </c>
       <c r="N33" t="n">
         <v>1401.822656006999</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>531.9089089580667</v>
+        <v>531.9089089580671</v>
       </c>
       <c r="C34" t="n">
-        <v>448.5749913667817</v>
+        <v>448.5749913667821</v>
       </c>
       <c r="D34" t="n">
-        <v>384.060617291068</v>
+        <v>384.0606172910684</v>
       </c>
       <c r="E34" t="n">
-        <v>321.7497890452968</v>
+        <v>321.7497890452972</v>
       </c>
       <c r="F34" t="n">
-        <v>260.4621068840084</v>
+        <v>260.4621068840088</v>
       </c>
       <c r="G34" t="n">
-        <v>177.5180090536606</v>
+        <v>177.5180090536611</v>
       </c>
       <c r="H34" t="n">
         <v>109.4033698102174</v>
       </c>
       <c r="I34" t="n">
-        <v>72.31281432967452</v>
+        <v>72.31281432967454</v>
       </c>
       <c r="J34" t="n">
-        <v>142.8836833329423</v>
+        <v>142.8836833329427</v>
       </c>
       <c r="K34" t="n">
-        <v>334.7174479414613</v>
+        <v>334.7174479414617</v>
       </c>
       <c r="L34" t="n">
-        <v>612.2622820570418</v>
+        <v>612.2622820570422</v>
       </c>
       <c r="M34" t="n">
-        <v>910.7227980222249</v>
+        <v>910.7227980222251</v>
       </c>
       <c r="N34" t="n">
-        <v>1209.516131903166</v>
+        <v>1209.516131903167</v>
       </c>
       <c r="O34" t="n">
         <v>1475.88851860874</v>
@@ -6877,16 +6877,16 @@
         <v>1692.404310243144</v>
       </c>
       <c r="Q34" t="n">
-        <v>1784.685154940427</v>
+        <v>1784.685154940428</v>
       </c>
       <c r="R34" t="n">
-        <v>1742.528942351012</v>
+        <v>1742.528942351013</v>
       </c>
       <c r="S34" t="n">
-        <v>1621.744956419758</v>
+        <v>1621.744956419759</v>
       </c>
       <c r="T34" t="n">
-        <v>1481.976447465964</v>
+        <v>1481.976447465965</v>
       </c>
       <c r="U34" t="n">
         <v>1278.429835389592</v>
@@ -6895,13 +6895,13 @@
         <v>1109.347612520327</v>
       </c>
       <c r="W34" t="n">
-        <v>905.5327078199883</v>
+        <v>905.5327078199888</v>
       </c>
       <c r="X34" t="n">
-        <v>763.1454222585928</v>
+        <v>763.1454222585934</v>
       </c>
       <c r="Y34" t="n">
-        <v>627.9551084516845</v>
+        <v>627.9551084516847</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1845.38931288702</v>
+        <v>1845.389312887019</v>
       </c>
       <c r="C35" t="n">
-        <v>1562.02906128323</v>
+        <v>1562.029061283229</v>
       </c>
       <c r="D35" t="n">
         <v>1289.365628013101</v>
       </c>
       <c r="E35" t="n">
-        <v>989.1796407514789</v>
+        <v>989.1796407514785</v>
       </c>
       <c r="F35" t="n">
-        <v>663.7960012984934</v>
+        <v>663.7960012984929</v>
       </c>
       <c r="G35" t="n">
-        <v>332.4453187535514</v>
+        <v>332.445318753551</v>
       </c>
       <c r="H35" t="n">
         <v>101.2053363568036</v>
@@ -6947,16 +6947,16 @@
         <v>1921.035957185396</v>
       </c>
       <c r="N35" t="n">
-        <v>2338.44837874044</v>
+        <v>2330.147168100645</v>
       </c>
       <c r="O35" t="n">
-        <v>2907.875487699279</v>
+        <v>2899.574277059484</v>
       </c>
       <c r="P35" t="n">
-        <v>3356.193968126342</v>
+        <v>3347.892757486547</v>
       </c>
       <c r="Q35" t="n">
-        <v>3615.640716483726</v>
+        <v>3607.339505843931</v>
       </c>
       <c r="R35" t="n">
         <v>3615.640716483726</v>
@@ -6977,7 +6977,7 @@
         <v>2738.787447178167</v>
       </c>
       <c r="X35" t="n">
-        <v>2450.923954253709</v>
+        <v>2450.923954253708</v>
       </c>
       <c r="Y35" t="n">
         <v>2146.386887614519</v>
@@ -7014,22 +7014,22 @@
         <v>72.31281432967452</v>
       </c>
       <c r="J36" t="n">
-        <v>135.5525569359403</v>
+        <v>197.6523130619041</v>
       </c>
       <c r="K36" t="n">
-        <v>214.5779825233107</v>
+        <v>538.4983232917273</v>
       </c>
       <c r="L36" t="n">
-        <v>734.2919025743513</v>
+        <v>1058.212243342768</v>
       </c>
       <c r="M36" t="n">
-        <v>1392.752755592268</v>
+        <v>1623.40564202965</v>
       </c>
       <c r="N36" t="n">
-        <v>1609.79917086549</v>
+        <v>2315.00100790299</v>
       </c>
       <c r="O36" t="n">
-        <v>2176.058138266662</v>
+        <v>2491.3362792202</v>
       </c>
       <c r="P36" t="n">
         <v>2613.527814201112</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>531.9089089580666</v>
+        <v>531.9089089580667</v>
       </c>
       <c r="C37" t="n">
-        <v>448.5749913667816</v>
+        <v>448.5749913667817</v>
       </c>
       <c r="D37" t="n">
-        <v>384.0606172910678</v>
+        <v>384.060617291068</v>
       </c>
       <c r="E37" t="n">
-        <v>321.7497890452967</v>
+        <v>321.7497890452968</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4621068840083</v>
+        <v>260.4621068840084</v>
       </c>
       <c r="G37" t="n">
         <v>177.5180090536606</v>
@@ -7093,16 +7093,16 @@
         <v>72.31281432967452</v>
       </c>
       <c r="J37" t="n">
-        <v>142.8836833329424</v>
+        <v>142.883683332942</v>
       </c>
       <c r="K37" t="n">
-        <v>334.7174479414614</v>
+        <v>334.717447941461</v>
       </c>
       <c r="L37" t="n">
-        <v>612.2622820570419</v>
+        <v>612.2622820570413</v>
       </c>
       <c r="M37" t="n">
-        <v>910.7227980222247</v>
+        <v>910.7227980222242</v>
       </c>
       <c r="N37" t="n">
         <v>1209.516131903166</v>
@@ -7114,7 +7114,7 @@
         <v>1692.404310243143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1784.685154940426</v>
+        <v>1784.685154940427</v>
       </c>
       <c r="R37" t="n">
         <v>1742.528942351011</v>
@@ -7126,19 +7126,19 @@
         <v>1481.976447465963</v>
       </c>
       <c r="U37" t="n">
-        <v>1278.429835389591</v>
+        <v>1278.429835389592</v>
       </c>
       <c r="V37" t="n">
-        <v>1109.347612520326</v>
+        <v>1109.347612520327</v>
       </c>
       <c r="W37" t="n">
-        <v>905.5327078199874</v>
+        <v>905.532707819988</v>
       </c>
       <c r="X37" t="n">
-        <v>763.145422258592</v>
+        <v>763.1454222585926</v>
       </c>
       <c r="Y37" t="n">
-        <v>627.9551084516843</v>
+        <v>627.9551084516845</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1845.389312887019</v>
+        <v>1845.38931288702</v>
       </c>
       <c r="C38" t="n">
-        <v>1562.029061283229</v>
+        <v>1562.02906128323</v>
       </c>
       <c r="D38" t="n">
-        <v>1289.3656280131</v>
+        <v>1289.365628013102</v>
       </c>
       <c r="E38" t="n">
-        <v>989.1796407514779</v>
+        <v>989.1796407514794</v>
       </c>
       <c r="F38" t="n">
-        <v>663.7960012984922</v>
+        <v>663.7960012984938</v>
       </c>
       <c r="G38" t="n">
-        <v>332.4453187535511</v>
+        <v>332.4453187535519</v>
       </c>
       <c r="H38" t="n">
-        <v>101.2053363568037</v>
+        <v>101.2053363568036</v>
       </c>
       <c r="I38" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J38" t="n">
         <v>272.1688377783985</v>
       </c>
       <c r="K38" t="n">
-        <v>692.4460138461715</v>
+        <v>692.4460138461714</v>
       </c>
       <c r="L38" t="n">
-        <v>1266.113641750531</v>
+        <v>1032.638417652586</v>
       </c>
       <c r="M38" t="n">
-        <v>1687.560733087452</v>
+        <v>1687.560733087451</v>
       </c>
       <c r="N38" t="n">
-        <v>2338.448378740441</v>
+        <v>2338.44837874044</v>
       </c>
       <c r="O38" t="n">
         <v>2907.875487699279</v>
@@ -7205,19 +7205,19 @@
         <v>3419.493110326274</v>
       </c>
       <c r="U38" t="n">
-        <v>3251.414459118608</v>
+        <v>3251.414459118609</v>
       </c>
       <c r="V38" t="n">
-        <v>3005.953837111659</v>
+        <v>3005.95383711166</v>
       </c>
       <c r="W38" t="n">
-        <v>2738.787447178167</v>
+        <v>2738.787447178168</v>
       </c>
       <c r="X38" t="n">
-        <v>2450.923954253708</v>
+        <v>2450.92395425371</v>
       </c>
       <c r="Y38" t="n">
-        <v>2146.386887614518</v>
+        <v>2146.38688761452</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>115.7338181697849</v>
       </c>
       <c r="I39" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J39" t="n">
-        <v>72.82218807489939</v>
+        <v>197.6523130619041</v>
       </c>
       <c r="K39" t="n">
-        <v>413.6681983047225</v>
+        <v>538.4983232917273</v>
       </c>
       <c r="L39" t="n">
-        <v>933.3821183557632</v>
+        <v>1058.212243342768</v>
       </c>
       <c r="M39" t="n">
-        <v>1130.79495826118</v>
+        <v>1716.673096360685</v>
       </c>
       <c r="N39" t="n">
-        <v>1401.822656006999</v>
+        <v>1933.719511633907</v>
       </c>
       <c r="O39" t="n">
-        <v>1968.081623408171</v>
+        <v>2491.3362792202</v>
       </c>
       <c r="P39" t="n">
-        <v>2405.551299342621</v>
+        <v>2613.527814201112</v>
       </c>
       <c r="Q39" t="n">
         <v>2645.290422970041</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>531.9089089580671</v>
+        <v>531.9089089580665</v>
       </c>
       <c r="C40" t="n">
-        <v>448.5749913667821</v>
+        <v>448.5749913667815</v>
       </c>
       <c r="D40" t="n">
-        <v>384.0606172910682</v>
+        <v>384.0606172910678</v>
       </c>
       <c r="E40" t="n">
-        <v>321.749789045297</v>
+        <v>321.7497890452967</v>
       </c>
       <c r="F40" t="n">
-        <v>260.4621068840086</v>
+        <v>260.4621068840083</v>
       </c>
       <c r="G40" t="n">
-        <v>177.5180090536607</v>
+        <v>177.5180090536605</v>
       </c>
       <c r="H40" t="n">
-        <v>109.4033698102175</v>
+        <v>109.4033698102174</v>
       </c>
       <c r="I40" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J40" t="n">
         <v>142.8836833329423</v>
       </c>
       <c r="K40" t="n">
-        <v>334.7174479414612</v>
+        <v>334.7174479414614</v>
       </c>
       <c r="L40" t="n">
-        <v>612.2622820570427</v>
+        <v>612.2622820570419</v>
       </c>
       <c r="M40" t="n">
-        <v>910.7227980222256</v>
+        <v>910.7227980222249</v>
       </c>
       <c r="N40" t="n">
-        <v>1209.516131903167</v>
+        <v>1209.516131903166</v>
       </c>
       <c r="O40" t="n">
-        <v>1475.88851860874</v>
+        <v>1475.888518608738</v>
       </c>
       <c r="P40" t="n">
-        <v>1692.404310243144</v>
+        <v>1692.404310243143</v>
       </c>
       <c r="Q40" t="n">
-        <v>1784.685154940428</v>
+        <v>1784.685154940426</v>
       </c>
       <c r="R40" t="n">
-        <v>1742.528942351012</v>
+        <v>1742.528942351011</v>
       </c>
       <c r="S40" t="n">
-        <v>1621.744956419759</v>
+        <v>1621.744956419758</v>
       </c>
       <c r="T40" t="n">
-        <v>1481.976447465964</v>
+        <v>1481.976447465963</v>
       </c>
       <c r="U40" t="n">
-        <v>1278.429835389592</v>
+        <v>1278.429835389591</v>
       </c>
       <c r="V40" t="n">
-        <v>1109.347612520327</v>
+        <v>1109.347612520326</v>
       </c>
       <c r="W40" t="n">
-        <v>905.5327078199884</v>
+        <v>905.5327078199875</v>
       </c>
       <c r="X40" t="n">
-        <v>763.145422258593</v>
+        <v>763.1454222585922</v>
       </c>
       <c r="Y40" t="n">
-        <v>627.9551084516849</v>
+        <v>627.9551084516842</v>
       </c>
     </row>
     <row r="41">
@@ -7394,25 +7394,25 @@
         <v>1289.365628013101</v>
       </c>
       <c r="E41" t="n">
-        <v>989.1796407514787</v>
+        <v>989.1796407514784</v>
       </c>
       <c r="F41" t="n">
-        <v>663.7960012984931</v>
+        <v>663.7960012984927</v>
       </c>
       <c r="G41" t="n">
-        <v>332.4453187535512</v>
+        <v>332.445318753551</v>
       </c>
       <c r="H41" t="n">
         <v>101.2053363568036</v>
       </c>
       <c r="I41" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J41" t="n">
         <v>272.1688377783985</v>
       </c>
       <c r="K41" t="n">
-        <v>692.4460138461715</v>
+        <v>692.4460138461714</v>
       </c>
       <c r="L41" t="n">
         <v>1266.113641750531</v>
@@ -7442,19 +7442,19 @@
         <v>3419.493110326274</v>
       </c>
       <c r="U41" t="n">
-        <v>3251.414459118608</v>
+        <v>3251.414459118607</v>
       </c>
       <c r="V41" t="n">
-        <v>3005.953837111659</v>
+        <v>3005.953837111658</v>
       </c>
       <c r="W41" t="n">
-        <v>2738.787447178167</v>
+        <v>2738.787447178166</v>
       </c>
       <c r="X41" t="n">
-        <v>2450.923954253709</v>
+        <v>2450.923954253708</v>
       </c>
       <c r="Y41" t="n">
-        <v>2146.386887614519</v>
+        <v>2146.386887614518</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.7338181697849</v>
       </c>
       <c r="I42" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J42" t="n">
-        <v>72.82218807489939</v>
+        <v>72.82218807489937</v>
       </c>
       <c r="K42" t="n">
-        <v>413.6681983047225</v>
+        <v>151.8476136622697</v>
       </c>
       <c r="L42" t="n">
-        <v>933.3821183557632</v>
+        <v>671.5615337133104</v>
       </c>
       <c r="M42" t="n">
-        <v>1130.79495826118</v>
+        <v>1330.022386731227</v>
       </c>
       <c r="N42" t="n">
-        <v>1401.822656006999</v>
+        <v>2021.617752604567</v>
       </c>
       <c r="O42" t="n">
-        <v>1968.081623408171</v>
+        <v>2197.953023921777</v>
       </c>
       <c r="P42" t="n">
-        <v>2405.551299342621</v>
+        <v>2613.527814201112</v>
       </c>
       <c r="Q42" t="n">
         <v>2645.290422970041</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>531.9089089580667</v>
+        <v>531.9089089580664</v>
       </c>
       <c r="C43" t="n">
-        <v>448.5749913667818</v>
+        <v>448.5749913667814</v>
       </c>
       <c r="D43" t="n">
-        <v>384.060617291068</v>
+        <v>384.0606172910677</v>
       </c>
       <c r="E43" t="n">
-        <v>321.7497890452968</v>
+        <v>321.7497890452966</v>
       </c>
       <c r="F43" t="n">
-        <v>260.4621068840083</v>
+        <v>260.4621068840082</v>
       </c>
       <c r="G43" t="n">
-        <v>177.5180090536606</v>
+        <v>177.5180090536605</v>
       </c>
       <c r="H43" t="n">
-        <v>109.4033698102174</v>
+        <v>109.4033698102173</v>
       </c>
       <c r="I43" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J43" t="n">
         <v>142.8836833329423</v>
       </c>
       <c r="K43" t="n">
-        <v>334.7174479414613</v>
+        <v>334.7174479414614</v>
       </c>
       <c r="L43" t="n">
-        <v>612.2622820570416</v>
+        <v>612.2622820570419</v>
       </c>
       <c r="M43" t="n">
-        <v>910.7227980222244</v>
+        <v>910.7227980222249</v>
       </c>
       <c r="N43" t="n">
         <v>1209.516131903166</v>
       </c>
       <c r="O43" t="n">
-        <v>1475.888518608739</v>
+        <v>1475.88851860874</v>
       </c>
       <c r="P43" t="n">
-        <v>1692.404310243143</v>
+        <v>1692.404310243144</v>
       </c>
       <c r="Q43" t="n">
         <v>1784.685154940427</v>
       </c>
       <c r="R43" t="n">
-        <v>1742.528942351011</v>
+        <v>1742.528942351012</v>
       </c>
       <c r="S43" t="n">
-        <v>1621.744956419758</v>
+        <v>1621.744956419759</v>
       </c>
       <c r="T43" t="n">
-        <v>1481.976447465963</v>
+        <v>1481.976447465964</v>
       </c>
       <c r="U43" t="n">
         <v>1278.429835389592</v>
       </c>
       <c r="V43" t="n">
-        <v>1109.347612520326</v>
+        <v>1109.347612520327</v>
       </c>
       <c r="W43" t="n">
-        <v>905.5327078199879</v>
+        <v>905.5327078199887</v>
       </c>
       <c r="X43" t="n">
-        <v>763.1454222585925</v>
+        <v>763.1454222585933</v>
       </c>
       <c r="Y43" t="n">
-        <v>627.9551084516845</v>
+        <v>627.9551084516841</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1845.38931288702</v>
+        <v>1845.389312887019</v>
       </c>
       <c r="C44" t="n">
-        <v>1562.02906128323</v>
+        <v>1562.029061283229</v>
       </c>
       <c r="D44" t="n">
         <v>1289.365628013101</v>
       </c>
       <c r="E44" t="n">
-        <v>989.1796407514789</v>
+        <v>989.1796407514785</v>
       </c>
       <c r="F44" t="n">
-        <v>663.7960012984934</v>
+        <v>663.7960012984929</v>
       </c>
       <c r="G44" t="n">
-        <v>332.4453187535514</v>
+        <v>332.445318753551</v>
       </c>
       <c r="H44" t="n">
         <v>101.2053363568036</v>
       </c>
       <c r="I44" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J44" t="n">
         <v>272.1688377783985</v>
       </c>
       <c r="K44" t="n">
-        <v>458.9707897482268</v>
+        <v>692.4460138461714</v>
       </c>
       <c r="L44" t="n">
-        <v>1032.638417652587</v>
+        <v>1266.113641750531</v>
       </c>
       <c r="M44" t="n">
-        <v>1687.560733087452</v>
+        <v>1921.035957185396</v>
       </c>
       <c r="N44" t="n">
-        <v>2338.448378740441</v>
+        <v>2571.923602838385</v>
       </c>
       <c r="O44" t="n">
-        <v>2907.875487699279</v>
+        <v>2899.574277059484</v>
       </c>
       <c r="P44" t="n">
-        <v>3356.193968126342</v>
+        <v>3347.892757486547</v>
       </c>
       <c r="Q44" t="n">
-        <v>3615.640716483726</v>
+        <v>3607.339505843931</v>
       </c>
       <c r="R44" t="n">
         <v>3615.640716483726</v>
@@ -7722,28 +7722,28 @@
         <v>115.7338181697849</v>
       </c>
       <c r="I45" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J45" t="n">
-        <v>72.82218807489939</v>
+        <v>72.82218807489937</v>
       </c>
       <c r="K45" t="n">
-        <v>413.6681983047225</v>
+        <v>214.5779825233107</v>
       </c>
       <c r="L45" t="n">
-        <v>566.2501765053385</v>
+        <v>734.2919025743513</v>
       </c>
       <c r="M45" t="n">
-        <v>1224.711029523255</v>
+        <v>1392.752755592268</v>
       </c>
       <c r="N45" t="n">
-        <v>1916.306395396595</v>
+        <v>1609.79917086549</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.641666713805</v>
+        <v>2176.058138266662</v>
       </c>
       <c r="P45" t="n">
-        <v>2405.551299342621</v>
+        <v>2613.527814201112</v>
       </c>
       <c r="Q45" t="n">
         <v>2645.290422970041</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>531.9089089580667</v>
+        <v>531.9089089580668</v>
       </c>
       <c r="C46" t="n">
-        <v>448.5749913667817</v>
+        <v>448.5749913667819</v>
       </c>
       <c r="D46" t="n">
-        <v>384.060617291068</v>
+        <v>384.0606172910681</v>
       </c>
       <c r="E46" t="n">
-        <v>321.7497890452968</v>
+        <v>321.749789045297</v>
       </c>
       <c r="F46" t="n">
-        <v>260.4621068840084</v>
+        <v>260.4621068840082</v>
       </c>
       <c r="G46" t="n">
-        <v>177.5180090536606</v>
+        <v>177.5180090536605</v>
       </c>
       <c r="H46" t="n">
         <v>109.4033698102174</v>
       </c>
       <c r="I46" t="n">
-        <v>72.31281432967454</v>
+        <v>72.31281432967452</v>
       </c>
       <c r="J46" t="n">
-        <v>142.883683332942</v>
+        <v>142.8836833329423</v>
       </c>
       <c r="K46" t="n">
-        <v>334.7174479414614</v>
+        <v>334.7174479414613</v>
       </c>
       <c r="L46" t="n">
-        <v>612.2622820570419</v>
+        <v>612.2622820570418</v>
       </c>
       <c r="M46" t="n">
-        <v>910.7227980222249</v>
+        <v>910.7227980222248</v>
       </c>
       <c r="N46" t="n">
         <v>1209.516131903166</v>
@@ -7822,31 +7822,31 @@
         <v>1475.888518608739</v>
       </c>
       <c r="P46" t="n">
-        <v>1692.404310243143</v>
+        <v>1692.404310243144</v>
       </c>
       <c r="Q46" t="n">
-        <v>1784.685154940426</v>
+        <v>1784.685154940427</v>
       </c>
       <c r="R46" t="n">
-        <v>1742.528942351011</v>
+        <v>1742.528942351012</v>
       </c>
       <c r="S46" t="n">
         <v>1621.744956419758</v>
       </c>
       <c r="T46" t="n">
-        <v>1481.976447465963</v>
+        <v>1481.976447465964</v>
       </c>
       <c r="U46" t="n">
-        <v>1278.429835389591</v>
+        <v>1278.429835389592</v>
       </c>
       <c r="V46" t="n">
-        <v>1109.347612520326</v>
+        <v>1109.347612520327</v>
       </c>
       <c r="W46" t="n">
-        <v>905.5327078199873</v>
+        <v>905.5327078199883</v>
       </c>
       <c r="X46" t="n">
-        <v>763.1454222585919</v>
+        <v>763.145422258593</v>
       </c>
       <c r="Y46" t="n">
         <v>627.9551084516845</v>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>278.1154692732874</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8061,22 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,13 +8222,13 @@
         <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8459,13 +8459,13 @@
         <v>341.5762492721087</v>
       </c>
       <c r="M8" t="n">
-        <v>243.0694830688306</v>
+        <v>336.1560675293942</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>335.9080457238082</v>
+        <v>242.8214612632446</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>243.6512732764805</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>244.3642140819956</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5732097540245</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>237.1515463854548</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>248.4060787465659</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>235.509096896164</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>273.324748550389</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>299.2758579151688</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,10 +8930,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504522</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>322.2978318884391</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>322.2978318884391</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298256</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298393</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>54.52654795211841</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>331.0187447508604</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>12.55597611092355</v>
+        <v>276.6307954741313</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>54.52654795211841</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>54.52654795211836</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>63.24746081453986</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>43.64808190101817</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>137.1929848847663</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>213.6799737979379</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>57.33135862066433</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>54.52654795211848</v>
       </c>
       <c r="N33" t="n">
-        <v>54.52654795211836</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>201.5133647170898</v>
+        <v>193.128303464772</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>57.33135862066433</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>63.36400895054643</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>371.4955139206715</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>181.8276548555561</v>
       </c>
       <c r="M38" t="n">
-        <v>213.6799737979389</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>54.52654795211836</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>385.1328245142256</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>54.52654795211836</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>296.3467225236593</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>88.31185287627116</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>136.5815603155328</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>57.33135862066433</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>63.36400895054646</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>192.6445430786908</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>173.9898402650539</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>94.77844484060851</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>118.2879726536335</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>193.4961355001531</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>232.5727127293405</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.2605855324323</v>
+        <v>161.2605855324322</v>
       </c>
       <c r="C13" t="n">
-        <v>148.6754264491228</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>130.0440783687073</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>133.6083408847594</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>102.8944979594881</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.9094984972718</v>
+        <v>107.9094984972717</v>
       </c>
       <c r="S13" t="n">
-        <v>185.7509941056915</v>
+        <v>45.89081603618992</v>
       </c>
       <c r="T13" t="n">
-        <v>42.06795754718394</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>267.685993989359</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>233.5662486743229</v>
       </c>
       <c r="W13" t="n">
-        <v>267.951603687086</v>
+        <v>267.9516036870859</v>
       </c>
       <c r="X13" t="n">
-        <v>207.1382607395321</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.0132587025898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13.79969299472539</v>
       </c>
       <c r="D14" t="n">
-        <v>336.1116469711779</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>388.3046510922064</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>86.48282907681231</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>330.669574067908</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>351.159706028964</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>161.2605855324322</v>
       </c>
       <c r="C16" t="n">
-        <v>148.6754264491228</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>130.0440783687073</v>
       </c>
       <c r="E16" t="n">
-        <v>127.8625679970641</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>126.8496533734262</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>148.289504885795</v>
+        <v>148.2895048857949</v>
       </c>
       <c r="H16" t="n">
-        <v>92.23357592435471</v>
+        <v>33.12165425044273</v>
       </c>
       <c r="I16" t="n">
-        <v>102.8944979594882</v>
+        <v>102.8944979594881</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.9094984972718</v>
+        <v>107.9094984972717</v>
       </c>
       <c r="S16" t="n">
         <v>185.7509941056915</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>267.685993989359</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>233.5662486743229</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>207.1382607395321</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.0132587025898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>111.0429821913725</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>98.45782310806301</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>34.86504180794152</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>76.63205003236634</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>98.0719015447351</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.39073754369964</v>
       </c>
       <c r="I19" t="n">
-        <v>52.67689461842829</v>
+        <v>52.67689461842838</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>153.052633073973</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.0429821913724</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>17.04158084502671</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>77.64496465600432</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>76.63205003236639</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>98.07190154473516</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.39073754369966</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>52.67689461842839</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.69189515621198</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>186.6739519511648</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>79.82647502764742</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>77.64496465600423</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>76.63205003236631</v>
+        <v>22.19713258859811</v>
       </c>
       <c r="G25" t="n">
-        <v>10.26235739135698</v>
+        <v>98.0719015447351</v>
       </c>
       <c r="H25" t="n">
-        <v>83.39073754369953</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>52.67689461842826</v>
+        <v>52.67689461842829</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.69189515621188</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>149.7956553615299</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>8.637020064256271</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.39073754369956</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>154.3280685569474</v>
+        <v>140.1220843273313</v>
       </c>
       <c r="U28" t="n">
-        <v>217.4683906482991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>156.9206573984723</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>111.0429821913724</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>77.64496465600426</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>98.0719015447351</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.28917857470877</v>
+        <v>57.69189515621188</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>35.98173572117929</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>183.3486453332631</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.7956553615298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>884782.4656227161</v>
+        <v>884782.4656227164</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>884782.4656227161</v>
+        <v>884782.4656227165</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>984562.4129294003</v>
+        <v>984562.4129294006</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>984562.4129294003</v>
+        <v>984562.4129294001</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>984562.4129294005</v>
+        <v>984562.4129294003</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651772</v>
@@ -26323,7 +26323,7 @@
         <v>452011.2999168657</v>
       </c>
       <c r="F2" t="n">
-        <v>452011.2999168657</v>
+        <v>452011.2999168658</v>
       </c>
       <c r="G2" t="n">
         <v>507444.6039761343</v>
@@ -26335,25 +26335,25 @@
         <v>507444.6039761343</v>
       </c>
       <c r="J2" t="n">
-        <v>507444.6039761343</v>
+        <v>507444.6039761342</v>
       </c>
       <c r="K2" t="n">
         <v>507444.6039761344</v>
       </c>
       <c r="L2" t="n">
+        <v>513151.1061651775</v>
+      </c>
+      <c r="M2" t="n">
         <v>513151.1061651774</v>
       </c>
-      <c r="M2" t="n">
-        <v>513151.1061651773</v>
-      </c>
       <c r="N2" t="n">
-        <v>513151.1061651777</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651775</v>
+        <v>513151.1061651774</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651775</v>
+        <v>513151.1061651774</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>40174.08267284791</v>
+        <v>40174.08267284779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>26404.0338295949</v>
+        <v>26404.03382959495</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52939.87842700054</v>
+        <v>52939.87842700046</v>
       </c>
       <c r="M3" t="n">
         <v>214260.1183920593</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>14857.11571960405</v>
+        <v>14857.11571960406</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>376176.6441257746</v>
       </c>
       <c r="E4" t="n">
-        <v>90589.0312289705</v>
+        <v>90589.03122897056</v>
       </c>
       <c r="F4" t="n">
-        <v>90589.0312289705</v>
+        <v>90589.03122897061</v>
       </c>
       <c r="G4" t="n">
         <v>141336.2155425376</v>
       </c>
       <c r="H4" t="n">
-        <v>141336.2155425376</v>
+        <v>141336.2155425375</v>
       </c>
       <c r="I4" t="n">
         <v>141336.2155425376</v>
       </c>
       <c r="J4" t="n">
-        <v>141336.2155425377</v>
+        <v>141336.2155425376</v>
       </c>
       <c r="K4" t="n">
-        <v>141336.2155425377</v>
+        <v>141336.2155425376</v>
       </c>
       <c r="L4" t="n">
         <v>153058.6257251537</v>
@@ -26479,13 +26479,13 @@
         <v>73930.65702894932</v>
       </c>
       <c r="F5" t="n">
-        <v>73930.65702894932</v>
+        <v>73930.65702894935</v>
       </c>
       <c r="G5" t="n">
-        <v>78152.40072422888</v>
+        <v>78152.40072422891</v>
       </c>
       <c r="H5" t="n">
-        <v>78152.40072422888</v>
+        <v>78152.40072422889</v>
       </c>
       <c r="I5" t="n">
         <v>78152.40072422888</v>
@@ -26497,7 +26497,7 @@
         <v>78152.40072422888</v>
       </c>
       <c r="L5" t="n">
-        <v>75743.90848338681</v>
+        <v>75743.90848338683</v>
       </c>
       <c r="M5" t="n">
         <v>75743.90848338681</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75955.01121324282</v>
+        <v>75955.01121324276</v>
       </c>
       <c r="C6" t="n">
-        <v>90744.71721748721</v>
+        <v>90744.71721748715</v>
       </c>
       <c r="D6" t="n">
         <v>77754.69199072535</v>
       </c>
       <c r="E6" t="n">
-        <v>-487553.3993037458</v>
+        <v>-487797.9585287391</v>
       </c>
       <c r="F6" t="n">
-        <v>287491.6116589458</v>
+        <v>287247.0524339526</v>
       </c>
       <c r="G6" t="n">
-        <v>247781.9050365199</v>
+        <v>247759.0790277639</v>
       </c>
       <c r="H6" t="n">
-        <v>287955.9877093681</v>
+        <v>287933.1617006119</v>
       </c>
       <c r="I6" t="n">
-        <v>287955.9877093677</v>
+        <v>287933.1617006115</v>
       </c>
       <c r="J6" t="n">
-        <v>261551.9538797729</v>
+        <v>261529.1278710166</v>
       </c>
       <c r="K6" t="n">
-        <v>287955.9877093678</v>
+        <v>287933.1617006117</v>
       </c>
       <c r="L6" t="n">
         <v>231408.6935296364</v>
       </c>
       <c r="M6" t="n">
-        <v>70088.4535645774</v>
+        <v>70088.45356457755</v>
       </c>
       <c r="N6" t="n">
-        <v>284348.5719566371</v>
+        <v>284348.5719566367</v>
       </c>
       <c r="O6" t="n">
-        <v>269491.4562370329</v>
+        <v>269491.4562370328</v>
       </c>
       <c r="P6" t="n">
-        <v>284348.571956637</v>
+        <v>284348.5719566367</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="F2" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="G2" t="n">
+        <v>68.78899799056482</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68.78899799056481</v>
+      </c>
+      <c r="I2" t="n">
         <v>68.78899799056491</v>
       </c>
-      <c r="H2" t="n">
-        <v>68.78899799056485</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68.78899799056494</v>
-      </c>
       <c r="J2" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="K2" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="L2" t="n">
+        <v>84.74624268325574</v>
+      </c>
+      <c r="M2" t="n">
         <v>84.74624268325573</v>
       </c>
-      <c r="M2" t="n">
-        <v>84.74624268325574</v>
-      </c>
       <c r="N2" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="O2" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="P2" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
     </row>
     <row r="3">
@@ -26799,37 +26799,37 @@
         <v>965.5878410438245</v>
       </c>
       <c r="F4" t="n">
+        <v>965.5878410438248</v>
+      </c>
+      <c r="G4" t="n">
+        <v>965.5878410438248</v>
+      </c>
+      <c r="H4" t="n">
+        <v>965.5878410438248</v>
+      </c>
+      <c r="I4" t="n">
         <v>965.5878410438245</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>965.5878410438245</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>965.5878410438245</v>
       </c>
-      <c r="I4" t="n">
-        <v>965.5878410438244</v>
-      </c>
-      <c r="J4" t="n">
-        <v>965.5878410438244</v>
-      </c>
-      <c r="K4" t="n">
-        <v>965.5878410438244</v>
-      </c>
       <c r="L4" t="n">
-        <v>903.9101791209315</v>
+        <v>903.9101791209316</v>
       </c>
       <c r="M4" t="n">
         <v>903.9101791209315</v>
       </c>
       <c r="N4" t="n">
-        <v>903.9101791209316</v>
+        <v>903.9101791209315</v>
       </c>
       <c r="O4" t="n">
-        <v>903.9101791209316</v>
+        <v>903.9101791209315</v>
       </c>
       <c r="P4" t="n">
-        <v>903.9101791209316</v>
+        <v>903.9101791209315</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.21760334105988</v>
+        <v>50.21760334105974</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66.17484803375068</v>
+        <v>66.17484803375058</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>18.57139464950506</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922856</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>859.7780067417031</v>
+        <v>859.7780067417029</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>50.21760334105988</v>
+        <v>50.21760334105974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>184.2108315792821</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>249.7167615605043</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27473,10 +27473,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>74.11041813112978</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>213.5699570555529</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>161.6408128242489</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>125.4893577570098</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>208.01389916236</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>322.5431732532999</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>310.3559507325637</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27701,16 +27701,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
         <v>106.9441862880172</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>45.26446047218649</v>
@@ -27749,7 +27749,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>101.2888756437027</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27819,13 +27819,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>157.361701111248</v>
       </c>
       <c r="S7" t="n">
-        <v>204.0849077710508</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,10 +27859,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>276.1205357701403</v>
       </c>
       <c r="F8" t="n">
-        <v>335.6187322575602</v>
+        <v>301.06621143959</v>
       </c>
       <c r="G8" t="n">
         <v>309.4929032130136</v>
@@ -27871,7 +27871,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>139.2185760862547</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.05928363902822</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>103.2102352841239</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>41.63523126251729</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>51.83524615327948</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>39.25937809126242</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>44.89280643615997</v>
       </c>
       <c r="H9" t="n">
         <v>6.425609934375004</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>248.640905285284</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.02214587981584</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>39.61121372080979</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>223.32345466678</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.9289608039547</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="C11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="D11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="E11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="F11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="G11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="H11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="I11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="T11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="U11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="V11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="W11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="X11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="C13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="D13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="E13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="F13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="G13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="H13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="I13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="J13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="K13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="L13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="M13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="N13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="O13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="P13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="R13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="S13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="T13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="U13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="V13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="W13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="X13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="C14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="D14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="E14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="F14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="G14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="H14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="I14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="T14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="U14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="V14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="W14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="X14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="C16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="D16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="E16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="F16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="G16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="H16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="I16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="J16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="K16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="L16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="M16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="N16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="O16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="P16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="R16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="S16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="T16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="U16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="V16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="W16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="X16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.57139464950502</v>
+        <v>18.57139464950508</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="C17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="D17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="E17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="F17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="G17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="H17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="I17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="T17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="U17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="V17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="W17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="X17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="C19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="D19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="E19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="F19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="G19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="H19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="I19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="J19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="K19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="L19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="M19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="N19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="O19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="P19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="R19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="S19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="T19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="U19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="V19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="W19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="X19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.78899799056491</v>
+        <v>68.78899799056482</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="C20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="D20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="E20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="F20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="G20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="H20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="I20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="T20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="U20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="V20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="W20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="X20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="C22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="D22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="E22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="F22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="G22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="H22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="I22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="J22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="K22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="L22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="M22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="N22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="O22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="P22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="Q22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="R22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="S22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="T22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="U22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="V22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="W22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="X22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.78899799056485</v>
+        <v>68.78899799056481</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="C23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="D23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="E23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="F23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="G23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="H23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="I23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="T23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="U23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="V23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="W23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="X23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="C25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="D25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="E25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="F25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="G25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="H25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="I25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="J25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="K25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="L25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="M25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="N25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="O25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="P25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="R25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="S25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="T25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="U25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="V25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="W25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="X25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="C26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="D26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="E26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="F26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="G26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="H26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="I26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="T26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="U26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="V26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="W26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="X26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Y26" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="C28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="D28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="E28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="F28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="G28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="H28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="I28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="J28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="K28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="L28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="M28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="N28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="O28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="P28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="R28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="S28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="T28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="U28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="V28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="W28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="X28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="C29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="D29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="E29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="F29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="G29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="H29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="I29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="T29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="U29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="V29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="W29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="X29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Y29" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="C31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="D31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="E31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="F31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="G31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="H31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="I31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="J31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="K31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="L31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="M31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="N31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="O31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="P31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="R31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="S31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="T31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="U31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="V31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="W31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="X31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.78899799056494</v>
+        <v>68.78899799056491</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="C32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="D32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="E32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="F32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="G32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="H32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="I32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="T32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="U32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="V32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="W32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="X32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="Y32" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="C34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="D34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="E34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="F34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="G34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="H34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="I34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="J34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="K34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="L34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="M34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="N34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="O34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="P34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="R34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="S34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="T34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="U34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="V34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="W34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="X34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
       <c r="Y34" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325574</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="C35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="D35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="E35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="F35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="G35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="H35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="I35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="T35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="U35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="V35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="W35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="X35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="Y35" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="C37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="D37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="E37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="F37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="G37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="H37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="I37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="J37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="K37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="L37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="M37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="N37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="O37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="P37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="R37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="S37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="T37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="U37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="V37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="W37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="X37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
       <c r="Y37" t="n">
-        <v>84.74624268325574</v>
+        <v>84.74624268325573</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="C38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="D38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="E38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="F38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="G38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="H38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="I38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="T38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="U38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="V38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="W38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="X38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Y38" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="C40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="D40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="E40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="F40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="G40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="H40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="I40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="J40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="K40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="L40" t="n">
-        <v>84.74624268325672</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="M40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="N40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="O40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325456</v>
       </c>
       <c r="P40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="R40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="S40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="T40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="U40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="V40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="W40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="X40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.74624268325567</v>
+        <v>84.74624268325576</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="C41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="D41" t="n">
-        <v>84.74624268325596</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="E41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="F41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="G41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="H41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="I41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="T41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="U41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="V41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="W41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="X41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Y41" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="C43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="D43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="E43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="F43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="G43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="H43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="I43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="J43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="K43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="L43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="M43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="N43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="O43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="P43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="R43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="S43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="T43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="U43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="V43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="W43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="X43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.74624268325572</v>
+        <v>84.74624268325576</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="C44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="D44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="E44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="F44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="G44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="H44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="I44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="T44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="U44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="V44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="W44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="X44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Y44" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="C46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="D46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="E46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="F46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="G46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="H46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="I46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="J46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="K46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="L46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="M46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="N46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="O46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="P46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Q46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="R46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="S46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="T46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="U46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="V46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="W46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="X46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.74624268325573</v>
+        <v>84.74624268325576</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34942,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>42.34905430330016</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="N6" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="O6" t="n">
-        <v>42.34905430330016</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35179,13 +35179,13 @@
         <v>105.8098343021215</v>
       </c>
       <c r="M8" t="n">
+        <v>105.8098343021215</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>12.72324984155789</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>105.8098343021215</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>105.8098343021215</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>105.8098343021215</v>
       </c>
       <c r="M9" t="n">
-        <v>31.43917583200616</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>105.8098343021215</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>105.8098343021215</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>101.5346894818337</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5145189345705603</v>
+        <v>126.6055542749794</v>
       </c>
       <c r="K12" t="n">
-        <v>79.82366220946494</v>
+        <v>344.2888992220435</v>
       </c>
       <c r="L12" t="n">
-        <v>427.4479588540416</v>
+        <v>154.1232103036526</v>
       </c>
       <c r="M12" t="n">
-        <v>665.1119727453704</v>
+        <v>498.6827669105394</v>
       </c>
       <c r="N12" t="n">
-        <v>698.5811776498385</v>
+        <v>219.238803306285</v>
       </c>
       <c r="O12" t="n">
         <v>571.9787549506786</v>
       </c>
       <c r="P12" t="n">
-        <v>123.4257929100125</v>
+        <v>441.8885615499497</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.08344320093863</v>
+        <v>242.1607309367877</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5.108858030156156</v>
+        <v>5.108858030156213</v>
       </c>
       <c r="K13" t="n">
         <v>127.5966313687938</v>
       </c>
       <c r="L13" t="n">
-        <v>214.1734692547145</v>
+        <v>214.1734692547146</v>
       </c>
       <c r="M13" t="n">
-        <v>235.3004206179492</v>
+        <v>235.3004206179493</v>
       </c>
       <c r="N13" t="n">
-        <v>235.6366003308365</v>
+        <v>235.6366003308366</v>
       </c>
       <c r="O13" t="n">
         <v>202.8881688405658</v>
       </c>
       <c r="P13" t="n">
-        <v>152.5279717989808</v>
+        <v>152.5279717989809</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.03812640794959</v>
+        <v>27.03812640794965</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,10 +35650,10 @@
         <v>424.5224000684575</v>
       </c>
       <c r="L14" t="n">
-        <v>579.4622504084443</v>
+        <v>579.462250408446</v>
       </c>
       <c r="M14" t="n">
-        <v>661.5376923584496</v>
+        <v>661.5376923584497</v>
       </c>
       <c r="N14" t="n">
         <v>657.4622683363522</v>
@@ -35732,13 +35732,13 @@
         <v>524.9635556071117</v>
       </c>
       <c r="M15" t="n">
-        <v>199.4069089953705</v>
+        <v>521.7047408838097</v>
       </c>
       <c r="N15" t="n">
         <v>219.238803306285</v>
       </c>
       <c r="O15" t="n">
-        <v>500.4142675623883</v>
+        <v>178.1164356739491</v>
       </c>
       <c r="P15" t="n">
         <v>441.8885615499497</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.108858030156153</v>
+        <v>5.108858030156213</v>
       </c>
       <c r="K16" t="n">
         <v>127.5966313687938</v>
       </c>
       <c r="L16" t="n">
-        <v>214.1734692547145</v>
+        <v>214.1734692547146</v>
       </c>
       <c r="M16" t="n">
-        <v>235.3004206179492</v>
+        <v>235.3004206179493</v>
       </c>
       <c r="N16" t="n">
-        <v>235.6366003308365</v>
+        <v>235.6366003308366</v>
       </c>
       <c r="O16" t="n">
-        <v>202.8881688405657</v>
+        <v>202.8881688405658</v>
       </c>
       <c r="P16" t="n">
-        <v>152.5279717989808</v>
+        <v>152.5279717989809</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.03812640794959</v>
+        <v>27.03812640794965</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>579.4622504084443</v>
       </c>
       <c r="M17" t="n">
-        <v>661.5376923584497</v>
+        <v>661.5376923584515</v>
       </c>
       <c r="N17" t="n">
         <v>657.4622683363522</v>
@@ -35905,7 +35905,7 @@
         <v>262.0674225832159</v>
       </c>
       <c r="R17" t="n">
-        <v>8.385061252318227</v>
+        <v>8.38506125231811</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>55.32646137121604</v>
+        <v>55.32646137121596</v>
       </c>
       <c r="K19" t="n">
         <v>177.8142347098536</v>
       </c>
       <c r="L19" t="n">
-        <v>264.3910725957744</v>
+        <v>264.3910725957743</v>
       </c>
       <c r="M19" t="n">
-        <v>285.5180239590091</v>
+        <v>285.518023959009</v>
       </c>
       <c r="N19" t="n">
-        <v>285.8542036718964</v>
+        <v>285.8542036718963</v>
       </c>
       <c r="O19" t="n">
-        <v>253.1057721816256</v>
+        <v>253.1057721816255</v>
       </c>
       <c r="P19" t="n">
         <v>202.7455751400407</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.25572974900948</v>
+        <v>77.25572974900939</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>262.0674225832159</v>
       </c>
       <c r="R20" t="n">
-        <v>8.38506125231811</v>
+        <v>8.385061252319606</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>55.04106688668897</v>
+        <v>126.6055542749794</v>
       </c>
       <c r="K21" t="n">
-        <v>344.2888992220435</v>
+        <v>79.82366220946494</v>
       </c>
       <c r="L21" t="n">
-        <v>524.9635556071117</v>
+        <v>485.141955054513</v>
       </c>
       <c r="M21" t="n">
-        <v>199.4069089953705</v>
+        <v>665.1119727453704</v>
       </c>
       <c r="N21" t="n">
-        <v>219.238803306285</v>
+        <v>698.5811776498385</v>
       </c>
       <c r="O21" t="n">
-        <v>571.9787549506786</v>
+        <v>178.1164356739491</v>
       </c>
       <c r="P21" t="n">
-        <v>441.8885615499497</v>
+        <v>123.4257929100125</v>
       </c>
       <c r="Q21" t="n">
         <v>242.1607309367877</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>55.32646137121598</v>
+        <v>55.32646137121594</v>
       </c>
       <c r="K22" t="n">
-        <v>177.8142347098536</v>
+        <v>177.8142347098535</v>
       </c>
       <c r="L22" t="n">
         <v>264.3910725957743</v>
@@ -36288,16 +36288,16 @@
         <v>285.518023959009</v>
       </c>
       <c r="N22" t="n">
-        <v>285.8542036718964</v>
+        <v>285.8542036718963</v>
       </c>
       <c r="O22" t="n">
-        <v>253.1057721816256</v>
+        <v>253.1057721816255</v>
       </c>
       <c r="P22" t="n">
-        <v>202.7455751400407</v>
+        <v>202.7455751400406</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.25572974900942</v>
+        <v>77.25572974900938</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>126.6055542749794</v>
       </c>
       <c r="K24" t="n">
-        <v>79.82366220946494</v>
+        <v>344.2888992220435</v>
       </c>
       <c r="L24" t="n">
         <v>154.1232103036526</v>
@@ -36449,13 +36449,13 @@
         <v>698.5811776498385</v>
       </c>
       <c r="O24" t="n">
-        <v>190.6724117848727</v>
+        <v>454.7472311480804</v>
       </c>
       <c r="P24" t="n">
-        <v>441.8885615499497</v>
+        <v>123.4257929100125</v>
       </c>
       <c r="Q24" t="n">
-        <v>242.1607309367877</v>
+        <v>32.08344320093863</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>55.32646137121607</v>
+        <v>55.32646137121604</v>
       </c>
       <c r="K25" t="n">
-        <v>177.8142347098537</v>
+        <v>177.8142347098536</v>
       </c>
       <c r="L25" t="n">
         <v>264.3910725957744</v>
@@ -36531,10 +36531,10 @@
         <v>253.1057721816256</v>
       </c>
       <c r="P25" t="n">
-        <v>202.7455751400408</v>
+        <v>202.7455751400407</v>
       </c>
       <c r="Q25" t="n">
-        <v>77.2557297490095</v>
+        <v>77.25572974900948</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5145189345705603</v>
+        <v>55.04106688668897</v>
       </c>
       <c r="K27" t="n">
         <v>344.2888992220435</v>
@@ -36683,7 +36683,7 @@
         <v>199.4069089953705</v>
       </c>
       <c r="N27" t="n">
-        <v>273.7653512584033</v>
+        <v>219.238803306285</v>
       </c>
       <c r="O27" t="n">
         <v>571.9787549506786</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>55.32646137121607</v>
+        <v>55.32646137121604</v>
       </c>
       <c r="K28" t="n">
-        <v>177.8142347098537</v>
+        <v>177.8142347098536</v>
       </c>
       <c r="L28" t="n">
         <v>264.3910725957744</v>
@@ -36768,10 +36768,10 @@
         <v>253.1057721816256</v>
       </c>
       <c r="P28" t="n">
-        <v>202.7455751400408</v>
+        <v>202.7455751400407</v>
       </c>
       <c r="Q28" t="n">
-        <v>77.2557297490095</v>
+        <v>77.25572974900948</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>126.6055542749794</v>
+        <v>63.76197974911042</v>
       </c>
       <c r="K30" t="n">
-        <v>344.2888992220435</v>
+        <v>79.82366220946494</v>
       </c>
       <c r="L30" t="n">
-        <v>197.7712922046707</v>
+        <v>154.1232103036526</v>
       </c>
       <c r="M30" t="n">
         <v>665.1119727453704</v>
       </c>
       <c r="N30" t="n">
-        <v>219.238803306285</v>
+        <v>698.5811776498385</v>
       </c>
       <c r="O30" t="n">
         <v>571.9787549506786</v>
       </c>
       <c r="P30" t="n">
-        <v>441.8885615499497</v>
+        <v>123.4257929100125</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.08344320093863</v>
+        <v>242.1607309367877</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>55.32646137121607</v>
+        <v>55.32646137121604</v>
       </c>
       <c r="K31" t="n">
-        <v>177.8142347098537</v>
+        <v>177.8142347098536</v>
       </c>
       <c r="L31" t="n">
         <v>264.3910725957744</v>
@@ -37005,10 +37005,10 @@
         <v>253.1057721816256</v>
       </c>
       <c r="P31" t="n">
-        <v>202.7455751400408</v>
+        <v>202.7455751400407</v>
       </c>
       <c r="Q31" t="n">
-        <v>77.2557297490095</v>
+        <v>77.25572974900948</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>201.8747711603273</v>
+        <v>169.9711408730198</v>
       </c>
       <c r="K32" t="n">
         <v>424.5224000684575</v>
@@ -37075,7 +37075,7 @@
         <v>579.4622504084443</v>
       </c>
       <c r="M32" t="n">
-        <v>425.7041326635551</v>
+        <v>661.5376923584497</v>
       </c>
       <c r="N32" t="n">
         <v>657.4622683363522</v>
@@ -37087,10 +37087,10 @@
         <v>452.8469499263264</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.0674225832159</v>
+        <v>49.75243192331126</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>8.38506125231811</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>524.9635556071117</v>
       </c>
       <c r="M33" t="n">
-        <v>199.4069089953705</v>
+        <v>253.933456947489</v>
       </c>
       <c r="N33" t="n">
-        <v>273.7653512584033</v>
+        <v>219.238803306285</v>
       </c>
       <c r="O33" t="n">
         <v>571.9787549506786</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>71.28370606390686</v>
+        <v>71.28370606390688</v>
       </c>
       <c r="K34" t="n">
         <v>193.7714794025445</v>
@@ -37239,13 +37239,13 @@
         <v>301.8114483645872</v>
       </c>
       <c r="O34" t="n">
-        <v>269.0630168743164</v>
+        <v>269.0630168743165</v>
       </c>
       <c r="P34" t="n">
         <v>218.7028198327316</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.2129744417003</v>
+        <v>93.21297444170031</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>661.5376923584497</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6287086414578</v>
+        <v>413.2436473891401</v>
       </c>
       <c r="O35" t="n">
         <v>575.1788979382212</v>
@@ -37327,7 +37327,7 @@
         <v>262.0674225832159</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>8.38506125231811</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>63.87852788511699</v>
+        <v>126.6055542749794</v>
       </c>
       <c r="K36" t="n">
-        <v>79.82366220946494</v>
+        <v>344.2888992220435</v>
       </c>
       <c r="L36" t="n">
         <v>524.9635556071117</v>
       </c>
       <c r="M36" t="n">
-        <v>665.1119727453704</v>
+        <v>570.902422916042</v>
       </c>
       <c r="N36" t="n">
-        <v>219.238803306285</v>
+        <v>698.5811776498385</v>
       </c>
       <c r="O36" t="n">
-        <v>571.9787549506786</v>
+        <v>178.1164356739491</v>
       </c>
       <c r="P36" t="n">
-        <v>441.8885615499497</v>
+        <v>123.4257929100125</v>
       </c>
       <c r="Q36" t="n">
         <v>32.08344320093863</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>71.28370606390688</v>
+        <v>71.28370606390686</v>
       </c>
       <c r="K37" t="n">
         <v>193.7714794025445</v>
@@ -37476,13 +37476,13 @@
         <v>301.8114483645872</v>
       </c>
       <c r="O37" t="n">
-        <v>269.0630168743165</v>
+        <v>269.0630168743164</v>
       </c>
       <c r="P37" t="n">
         <v>218.7028198327316</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.21297444170031</v>
+        <v>93.2129744417003</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>424.5224000684575</v>
       </c>
       <c r="L38" t="n">
-        <v>579.4622504084443</v>
+        <v>343.6286907135499</v>
       </c>
       <c r="M38" t="n">
-        <v>425.704132663556</v>
+        <v>661.5376923584497</v>
       </c>
       <c r="N38" t="n">
         <v>657.4622683363522</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5145189345705603</v>
+        <v>126.6055542749794</v>
       </c>
       <c r="K39" t="n">
         <v>344.2888992220435</v>
@@ -37628,19 +37628,19 @@
         <v>524.9635556071117</v>
       </c>
       <c r="M39" t="n">
-        <v>199.4069089953705</v>
+        <v>665.1119727453704</v>
       </c>
       <c r="N39" t="n">
-        <v>273.7653512584033</v>
+        <v>219.238803306285</v>
       </c>
       <c r="O39" t="n">
-        <v>571.9787549506786</v>
+        <v>563.2492601881747</v>
       </c>
       <c r="P39" t="n">
-        <v>441.8885615499497</v>
+        <v>123.4257929100125</v>
       </c>
       <c r="Q39" t="n">
-        <v>242.1607309367877</v>
+        <v>32.08344320093863</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>71.28370606390681</v>
+        <v>71.28370606390689</v>
       </c>
       <c r="K40" t="n">
-        <v>193.7714794025444</v>
+        <v>193.7714794025445</v>
       </c>
       <c r="L40" t="n">
-        <v>280.3483172884662</v>
+        <v>280.3483172884652</v>
       </c>
       <c r="M40" t="n">
-        <v>301.4752686516998</v>
+        <v>301.4752686516999</v>
       </c>
       <c r="N40" t="n">
-        <v>301.8114483645871</v>
+        <v>301.8114483645872</v>
       </c>
       <c r="O40" t="n">
-        <v>269.0630168743164</v>
+        <v>269.0630168743153</v>
       </c>
       <c r="P40" t="n">
-        <v>218.7028198327315</v>
+        <v>218.7028198327316</v>
       </c>
       <c r="Q40" t="n">
-        <v>93.21297444170024</v>
+        <v>93.21297444170033</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0.5145189345705603</v>
       </c>
       <c r="K42" t="n">
-        <v>344.2888992220435</v>
+        <v>79.82366220946494</v>
       </c>
       <c r="L42" t="n">
         <v>524.9635556071117</v>
       </c>
       <c r="M42" t="n">
-        <v>199.4069089953705</v>
+        <v>665.1119727453704</v>
       </c>
       <c r="N42" t="n">
-        <v>273.7653512584033</v>
+        <v>698.5811776498385</v>
       </c>
       <c r="O42" t="n">
-        <v>571.9787549506786</v>
+        <v>178.1164356739491</v>
       </c>
       <c r="P42" t="n">
-        <v>441.8885615499497</v>
+        <v>419.7725154336717</v>
       </c>
       <c r="Q42" t="n">
-        <v>242.1607309367877</v>
+        <v>32.08344320093863</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>71.28370606390685</v>
+        <v>71.28370606390689</v>
       </c>
       <c r="K43" t="n">
         <v>193.7714794025445</v>
@@ -37950,13 +37950,13 @@
         <v>301.8114483645872</v>
       </c>
       <c r="O43" t="n">
-        <v>269.0630168743164</v>
+        <v>269.0630168743165</v>
       </c>
       <c r="P43" t="n">
         <v>218.7028198327316</v>
       </c>
       <c r="Q43" t="n">
-        <v>93.21297444170028</v>
+        <v>93.21297444170033</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>201.8747711603273</v>
       </c>
       <c r="K44" t="n">
-        <v>188.6888403735639</v>
+        <v>424.5224000684575</v>
       </c>
       <c r="L44" t="n">
         <v>579.4622504084443</v>
@@ -38029,7 +38029,7 @@
         <v>657.4622683363522</v>
       </c>
       <c r="O44" t="n">
-        <v>575.1788979382212</v>
+        <v>330.9602769910087</v>
       </c>
       <c r="P44" t="n">
         <v>452.8469499263264</v>
@@ -38038,7 +38038,7 @@
         <v>262.0674225832159</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>8.38506125231811</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0.5145189345705603</v>
       </c>
       <c r="K45" t="n">
-        <v>344.2888992220435</v>
+        <v>143.1876711600114</v>
       </c>
       <c r="L45" t="n">
-        <v>154.1232103036526</v>
+        <v>524.9635556071117</v>
       </c>
       <c r="M45" t="n">
         <v>665.1119727453704</v>
       </c>
       <c r="N45" t="n">
-        <v>698.5811776498385</v>
+        <v>219.238803306285</v>
       </c>
       <c r="O45" t="n">
-        <v>178.1164356739491</v>
+        <v>571.9787549506786</v>
       </c>
       <c r="P45" t="n">
-        <v>316.0703359887033</v>
+        <v>441.8885615499497</v>
       </c>
       <c r="Q45" t="n">
-        <v>242.1607309367877</v>
+        <v>32.08344320093863</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>71.28370606390686</v>
+        <v>71.28370606390689</v>
       </c>
       <c r="K46" t="n">
         <v>193.7714794025445</v>
@@ -38187,13 +38187,13 @@
         <v>301.8114483645872</v>
       </c>
       <c r="O46" t="n">
-        <v>269.0630168743164</v>
+        <v>269.0630168743165</v>
       </c>
       <c r="P46" t="n">
         <v>218.7028198327316</v>
       </c>
       <c r="Q46" t="n">
-        <v>93.2129744417003</v>
+        <v>93.21297444170033</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
